--- a/Gastos.xlsx
+++ b/Gastos.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Gastos Mensuales" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Gastos Mensuales'!$A$6:$N$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Gastos Mensuales'!$A$6:$N$43</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -176,15 +176,6 @@
     <t>Seguro de vida sobre saldo</t>
   </si>
   <si>
-    <t>Algo que no se</t>
-  </si>
-  <si>
-    <t>UBER (actualizado al 12/10/21)</t>
-  </si>
-  <si>
-    <t>Andres Vernazza (en proceso de devolución - $7200)</t>
-  </si>
-  <si>
     <t>Bruna (Comida)</t>
   </si>
   <si>
@@ -198,13 +189,22 @@
   </si>
   <si>
     <t>Evitar</t>
+  </si>
+  <si>
+    <t>UBER (actualizado al 15/10/21)</t>
+  </si>
+  <si>
+    <t>Termo pa los verdes</t>
+  </si>
+  <si>
+    <t>Hering (3 Remeras para salir para verano)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,13 +236,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
@@ -253,6 +246,27 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -290,11 +304,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCCFF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -317,6 +326,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -327,12 +342,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -346,38 +360,48 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -664,11 +688,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N65"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E65" sqref="E65"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,23 +701,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -759,110 +783,110 @@
       <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="18">
         <v>610</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="15">
         <v>295</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>295</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>295</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="15">
         <v>350</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="15">
         <v>90</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>90</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>90</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>90</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>90</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>90</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <v>90</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <v>90</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <v>90</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <v>90</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="7">
         <v>90</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="7">
         <v>90</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="7">
         <v>90</v>
       </c>
     </row>
@@ -870,231 +894,231 @@
       <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="15">
         <v>2470</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="8">
-        <v>70</v>
-      </c>
-      <c r="C13" s="8">
-        <v>70</v>
-      </c>
-      <c r="D13" s="8">
-        <v>70</v>
-      </c>
-      <c r="E13" s="8">
-        <v>70</v>
-      </c>
-      <c r="F13" s="8">
-        <v>70</v>
-      </c>
-      <c r="G13" s="8">
-        <v>70</v>
-      </c>
-      <c r="H13" s="8">
-        <v>70</v>
-      </c>
-      <c r="I13" s="8">
-        <v>70</v>
-      </c>
-      <c r="J13" s="8">
-        <v>70</v>
-      </c>
-      <c r="K13" s="8">
-        <v>70</v>
-      </c>
-      <c r="L13" s="8">
-        <v>70</v>
-      </c>
-      <c r="M13" s="8">
-        <v>70</v>
-      </c>
-      <c r="N13" s="8">
+      <c r="B13" s="15">
+        <v>70</v>
+      </c>
+      <c r="C13" s="7">
+        <v>70</v>
+      </c>
+      <c r="D13" s="7">
+        <v>70</v>
+      </c>
+      <c r="E13" s="7">
+        <v>70</v>
+      </c>
+      <c r="F13" s="7">
+        <v>70</v>
+      </c>
+      <c r="G13" s="7">
+        <v>70</v>
+      </c>
+      <c r="H13" s="7">
+        <v>70</v>
+      </c>
+      <c r="I13" s="7">
+        <v>70</v>
+      </c>
+      <c r="J13" s="7">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7">
+        <v>70</v>
+      </c>
+      <c r="L13" s="7">
+        <v>70</v>
+      </c>
+      <c r="M13" s="7">
+        <v>70</v>
+      </c>
+      <c r="N13" s="7">
         <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="17">
         <v>300</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="15">
         <v>166</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>166</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>166</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>166</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="15">
         <v>837</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>837</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>837</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <v>837</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="15">
         <v>511</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>511</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>511</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <v>511</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <v>511</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <v>511</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="7">
         <v>511</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="15">
         <v>60</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="15">
         <v>672</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>672</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>672</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="8">
         <v>700</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="8">
         <v>700</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="8">
         <v>700</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="8">
         <v>700</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="8">
         <v>700</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="8">
         <v>700</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="8">
         <v>700</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="8">
         <v>700</v>
       </c>
-      <c r="M19" s="10">
+      <c r="M19" s="8">
         <v>700</v>
       </c>
-      <c r="N19" s="10">
+      <c r="N19" s="8">
         <v>700</v>
       </c>
     </row>
@@ -1102,147 +1126,147 @@
       <c r="A20" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="15">
         <v>566</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>566</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>566</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="7">
         <v>566</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="7">
         <v>566</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="7">
         <v>566</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="7">
         <v>566</v>
       </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="15">
         <v>180</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>180</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>180</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="7">
         <v>180</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="7">
         <v>180</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="7">
         <v>180</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="7">
         <v>180</v>
       </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="15">
         <v>195</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="19">
         <v>580</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="11">
-        <v>70</v>
-      </c>
-      <c r="C24" s="11">
-        <v>70</v>
-      </c>
-      <c r="D24" s="11">
-        <v>70</v>
-      </c>
-      <c r="E24" s="11">
-        <v>70</v>
-      </c>
-      <c r="F24" s="11">
-        <v>70</v>
-      </c>
-      <c r="G24" s="11">
-        <v>70</v>
-      </c>
-      <c r="H24" s="11">
-        <v>70</v>
-      </c>
-      <c r="I24" s="11">
-        <v>70</v>
-      </c>
-      <c r="J24" s="11">
-        <v>70</v>
-      </c>
-      <c r="K24" s="11">
-        <v>70</v>
-      </c>
-      <c r="L24" s="11">
-        <v>70</v>
-      </c>
-      <c r="M24" s="11">
-        <v>70</v>
-      </c>
-      <c r="N24" s="11">
+      <c r="B24" s="19">
+        <v>70</v>
+      </c>
+      <c r="C24" s="9">
+        <v>70</v>
+      </c>
+      <c r="D24" s="9">
+        <v>70</v>
+      </c>
+      <c r="E24" s="9">
+        <v>70</v>
+      </c>
+      <c r="F24" s="9">
+        <v>70</v>
+      </c>
+      <c r="G24" s="9">
+        <v>70</v>
+      </c>
+      <c r="H24" s="9">
+        <v>70</v>
+      </c>
+      <c r="I24" s="9">
+        <v>70</v>
+      </c>
+      <c r="J24" s="9">
+        <v>70</v>
+      </c>
+      <c r="K24" s="9">
+        <v>70</v>
+      </c>
+      <c r="L24" s="9">
+        <v>70</v>
+      </c>
+      <c r="M24" s="9">
+        <v>70</v>
+      </c>
+      <c r="N24" s="9">
         <v>70</v>
       </c>
     </row>
@@ -1250,43 +1274,43 @@
       <c r="A25" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="15">
         <v>819</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <v>819</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>819</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="7">
         <v>819</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="7">
         <v>819</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="7">
         <v>819</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="7">
         <v>819</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="7">
         <v>819</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25" s="7">
         <v>819</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="7">
         <v>819</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L25" s="7">
         <v>819</v>
       </c>
-      <c r="M25" s="8">
+      <c r="M25" s="7">
         <v>819</v>
       </c>
-      <c r="N25" s="8">
+      <c r="N25" s="7">
         <v>819</v>
       </c>
     </row>
@@ -1294,75 +1318,75 @@
       <c r="A26" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="15">
         <v>295</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>295</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <v>295</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="7">
         <v>295</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="7">
         <v>295</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="7">
         <v>295</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="7">
         <v>295</v>
       </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="15">
         <v>380</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <v>380</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7">
         <v>380</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="7">
         <v>380</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="7">
         <v>380</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="7">
         <v>380</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="7">
         <v>380</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="7">
         <v>380</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="7">
         <v>380</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="7">
         <v>380</v>
       </c>
-      <c r="L27" s="8">
+      <c r="L27" s="7">
         <v>380</v>
       </c>
-      <c r="M27" s="8">
+      <c r="M27" s="7">
         <v>380</v>
       </c>
-      <c r="N27" s="8">
+      <c r="N27" s="7">
         <v>380</v>
       </c>
     </row>
@@ -1370,79 +1394,79 @@
       <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="15">
         <v>168</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="17">
         <v>240</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="8">
+        <v>49</v>
+      </c>
+      <c r="B30" s="15">
         <v>1073</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="10">
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="8">
         <v>1400</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="8">
         <v>1400</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="8">
         <v>1400</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="8">
         <v>1400</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="8">
         <v>1400</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J30" s="8">
         <v>1400</v>
       </c>
-      <c r="K30" s="10">
+      <c r="K30" s="8">
         <v>1400</v>
       </c>
-      <c r="L30" s="10">
+      <c r="L30" s="8">
         <v>1400</v>
       </c>
-      <c r="M30" s="10">
+      <c r="M30" s="8">
         <v>1400</v>
       </c>
-      <c r="N30" s="10">
+      <c r="N30" s="8">
         <v>1400</v>
       </c>
     </row>
@@ -1450,844 +1474,829 @@
       <c r="A31" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="15">
         <v>1098</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="7">
         <v>1098</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="7">
         <v>1098</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="15">
         <v>367</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="15">
         <v>334</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <v>334</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="15">
         <v>62</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="15">
         <v>270</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="7">
         <v>270</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="7">
         <v>270</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="7">
         <v>270</v>
       </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="15">
         <v>122</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="7">
         <v>122</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="7">
         <v>122</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="7">
         <v>122</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="7">
         <v>122</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="7">
         <v>122</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36" s="7">
         <v>122</v>
       </c>
-      <c r="I36" s="8">
+      <c r="I36" s="7">
         <v>122</v>
       </c>
-      <c r="J36" s="8">
+      <c r="J36" s="7">
         <v>122</v>
       </c>
-      <c r="K36" s="8">
+      <c r="K36" s="7">
         <v>122</v>
       </c>
-      <c r="L36" s="8">
+      <c r="L36" s="7">
         <v>122</v>
       </c>
-      <c r="M36" s="8">
+      <c r="M36" s="7">
         <v>122</v>
       </c>
-      <c r="N36" s="8">
+      <c r="N36" s="7">
         <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="13">
+        <v>54</v>
+      </c>
+      <c r="B37" s="16">
         <v>3600</v>
       </c>
-      <c r="C37" s="13">
-        <v>2000</v>
-      </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
+      <c r="C37" s="11">
+        <v>3450</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="9">
-        <v>0</v>
-      </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="15"/>
+      <c r="C38" s="7">
+        <v>120</v>
+      </c>
+      <c r="D38" s="7">
+        <v>120</v>
+      </c>
+      <c r="E38" s="7">
+        <v>120</v>
+      </c>
+      <c r="F38" s="7">
+        <v>120</v>
+      </c>
+      <c r="G38" s="7">
+        <v>120</v>
+      </c>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8">
-        <v>120</v>
-      </c>
-      <c r="D39" s="8">
-        <v>120</v>
-      </c>
-      <c r="E39" s="8">
-        <v>120</v>
-      </c>
-      <c r="F39" s="8">
-        <v>120</v>
-      </c>
-      <c r="G39" s="8">
-        <v>120</v>
-      </c>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
+        <v>56</v>
+      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="7">
+        <v>1697</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
+      <c r="A53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="2">
+        <f>SUM(B8:B52)</f>
+        <v>16850</v>
+      </c>
+      <c r="C53" s="2">
+        <f>SUM(C8:C52)</f>
+        <v>12042</v>
+      </c>
+      <c r="D53" s="2">
+        <f>SUM(D8:D52)</f>
+        <v>6561</v>
+      </c>
+      <c r="E53" s="2">
+        <f>SUM(E8:E52)</f>
+        <v>6596</v>
+      </c>
+      <c r="F53" s="2">
+        <f>SUM(F8:F52)</f>
+        <v>5323</v>
+      </c>
+      <c r="G53" s="2">
+        <f>SUM(G8:G52)</f>
+        <v>5323</v>
+      </c>
+      <c r="H53" s="2">
+        <f>SUM(H8:H52)</f>
+        <v>5203</v>
+      </c>
+      <c r="I53" s="2">
+        <f>SUM(I8:I52)</f>
+        <v>3651</v>
+      </c>
+      <c r="J53" s="2">
+        <f>SUM(J8:J52)</f>
+        <v>3651</v>
+      </c>
+      <c r="K53" s="2">
+        <f>SUM(K8:K52)</f>
+        <v>3651</v>
+      </c>
+      <c r="L53" s="2">
+        <f>SUM(L8:L52)</f>
+        <v>3651</v>
+      </c>
+      <c r="M53" s="2">
+        <f>SUM(M8:M52)</f>
+        <v>3651</v>
+      </c>
+      <c r="N53" s="2">
+        <f>SUM(N8:N52)</f>
+        <v>3651</v>
+      </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" s="2">
-        <f t="shared" ref="B54:N54" si="0">SUM(B8:B53)</f>
-        <v>16850</v>
-      </c>
-      <c r="C54" s="2">
-        <f t="shared" si="0"/>
-        <v>8895</v>
-      </c>
-      <c r="D54" s="2">
-        <f t="shared" si="0"/>
-        <v>6561</v>
-      </c>
-      <c r="E54" s="2">
-        <f t="shared" si="0"/>
-        <v>6596</v>
-      </c>
-      <c r="F54" s="2">
-        <f t="shared" si="0"/>
-        <v>5323</v>
-      </c>
-      <c r="G54" s="2">
-        <f t="shared" si="0"/>
-        <v>5323</v>
-      </c>
-      <c r="H54" s="2">
-        <f t="shared" si="0"/>
-        <v>5203</v>
-      </c>
-      <c r="I54" s="2">
-        <f t="shared" si="0"/>
-        <v>3651</v>
-      </c>
-      <c r="J54" s="2">
-        <f t="shared" si="0"/>
-        <v>3651</v>
-      </c>
-      <c r="K54" s="2">
-        <f t="shared" si="0"/>
-        <v>3651</v>
-      </c>
-      <c r="L54" s="2">
-        <f t="shared" si="0"/>
-        <v>3651</v>
-      </c>
-      <c r="M54" s="2">
-        <f t="shared" si="0"/>
-        <v>3651</v>
-      </c>
-      <c r="N54" s="2">
-        <f t="shared" si="0"/>
-        <v>3651</v>
-      </c>
+      <c r="A54" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55">
+        <v>2550</v>
+      </c>
+      <c r="C55">
+        <v>2550</v>
+      </c>
+      <c r="D55">
+        <v>2550</v>
+      </c>
+      <c r="E55">
+        <v>2550</v>
+      </c>
+      <c r="F55">
+        <v>2550</v>
+      </c>
+      <c r="G55">
+        <v>2550</v>
+      </c>
+      <c r="H55">
+        <v>2550</v>
+      </c>
+      <c r="I55">
+        <v>2550</v>
+      </c>
+      <c r="J55">
+        <v>2550</v>
+      </c>
+      <c r="K55">
+        <v>2550</v>
+      </c>
+      <c r="L55">
+        <v>2550</v>
+      </c>
+      <c r="M55">
+        <v>2550</v>
+      </c>
+      <c r="N55">
+        <v>2550</v>
+      </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B56">
-        <v>2550</v>
-      </c>
-      <c r="C56">
-        <v>2550</v>
+        <v>1206</v>
       </c>
       <c r="D56">
-        <v>2550</v>
-      </c>
-      <c r="E56">
-        <v>2550</v>
+        <v>1206</v>
       </c>
       <c r="F56">
-        <v>2550</v>
-      </c>
-      <c r="G56">
-        <v>2550</v>
+        <v>1206</v>
       </c>
       <c r="H56">
-        <v>2550</v>
-      </c>
-      <c r="I56">
-        <v>2550</v>
+        <v>1206</v>
       </c>
       <c r="J56">
-        <v>2550</v>
-      </c>
-      <c r="K56">
-        <v>2550</v>
+        <v>1206</v>
       </c>
       <c r="L56">
-        <v>2550</v>
-      </c>
-      <c r="M56">
-        <v>2550</v>
+        <v>1206</v>
       </c>
       <c r="N56">
-        <v>2550</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B57">
-        <v>1206</v>
+        <v>1700</v>
+      </c>
+      <c r="C57">
+        <v>1700</v>
       </c>
       <c r="D57">
-        <v>1206</v>
+        <v>1700</v>
+      </c>
+      <c r="E57">
+        <v>1700</v>
       </c>
       <c r="F57">
-        <v>1206</v>
+        <v>1700</v>
+      </c>
+      <c r="G57">
+        <v>1700</v>
       </c>
       <c r="H57">
-        <v>1206</v>
+        <v>1700</v>
+      </c>
+      <c r="I57">
+        <v>1700</v>
       </c>
       <c r="J57">
-        <v>1206</v>
+        <v>1700</v>
+      </c>
+      <c r="K57">
+        <v>1700</v>
       </c>
       <c r="L57">
-        <v>1206</v>
+        <v>1700</v>
+      </c>
+      <c r="M57">
+        <v>1700</v>
       </c>
       <c r="N57">
-        <v>1206</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B58">
-        <v>1700</v>
+        <v>4000</v>
       </c>
       <c r="C58">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="D58">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="E58">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="F58">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="G58">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="H58">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="I58">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="J58">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="K58">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="L58">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="M58">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="N58">
-        <v>1700</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>17</v>
-      </c>
-      <c r="B59">
-        <v>4000</v>
-      </c>
-      <c r="C59">
-        <v>2500</v>
-      </c>
-      <c r="D59">
-        <v>2500</v>
-      </c>
-      <c r="E59">
-        <v>2500</v>
-      </c>
-      <c r="F59">
-        <v>2500</v>
-      </c>
-      <c r="G59">
-        <v>2500</v>
-      </c>
-      <c r="H59">
-        <v>2500</v>
-      </c>
-      <c r="I59">
-        <v>2500</v>
-      </c>
-      <c r="J59">
-        <v>2500</v>
-      </c>
-      <c r="K59">
-        <v>2500</v>
-      </c>
-      <c r="L59">
-        <v>2500</v>
-      </c>
-      <c r="M59">
-        <v>2500</v>
-      </c>
-      <c r="N59">
-        <v>2500</v>
+      <c r="A59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" s="2">
+        <f t="shared" ref="B59:N59" si="0">SUM(B55:B58)</f>
+        <v>9456</v>
+      </c>
+      <c r="C59" s="2">
+        <f t="shared" si="0"/>
+        <v>6750</v>
+      </c>
+      <c r="D59" s="2">
+        <f t="shared" si="0"/>
+        <v>7956</v>
+      </c>
+      <c r="E59" s="2">
+        <f t="shared" si="0"/>
+        <v>6750</v>
+      </c>
+      <c r="F59" s="2">
+        <f t="shared" si="0"/>
+        <v>7956</v>
+      </c>
+      <c r="G59" s="2">
+        <f t="shared" si="0"/>
+        <v>6750</v>
+      </c>
+      <c r="H59" s="2">
+        <f t="shared" si="0"/>
+        <v>7956</v>
+      </c>
+      <c r="I59" s="2">
+        <f t="shared" si="0"/>
+        <v>6750</v>
+      </c>
+      <c r="J59" s="2">
+        <f t="shared" si="0"/>
+        <v>7956</v>
+      </c>
+      <c r="K59" s="2">
+        <f t="shared" si="0"/>
+        <v>6750</v>
+      </c>
+      <c r="L59" s="2">
+        <f t="shared" si="0"/>
+        <v>7956</v>
+      </c>
+      <c r="M59" s="2">
+        <f t="shared" si="0"/>
+        <v>6750</v>
+      </c>
+      <c r="N59" s="2">
+        <f t="shared" si="0"/>
+        <v>7956</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B60" s="2">
-        <f t="shared" ref="B60:N60" si="1">SUM(B56:B59)</f>
-        <v>9456</v>
-      </c>
-      <c r="C60" s="2">
+      <c r="A60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61">
+        <v>10000</v>
+      </c>
+      <c r="C61">
+        <v>10000</v>
+      </c>
+      <c r="D61">
+        <v>10000</v>
+      </c>
+      <c r="E61">
+        <v>10000</v>
+      </c>
+      <c r="F61">
+        <v>10000</v>
+      </c>
+      <c r="G61">
+        <v>10000</v>
+      </c>
+      <c r="H61">
+        <v>10000</v>
+      </c>
+      <c r="I61">
+        <v>10000</v>
+      </c>
+      <c r="J61">
+        <v>10000</v>
+      </c>
+      <c r="K61">
+        <v>10000</v>
+      </c>
+      <c r="L61">
+        <v>10000</v>
+      </c>
+      <c r="M61">
+        <v>10000</v>
+      </c>
+      <c r="N61">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" s="6">
+        <f t="shared" ref="B64:N64" si="1">SUM(B53+B59+B61)</f>
+        <v>36306</v>
+      </c>
+      <c r="C64" s="6">
         <f t="shared" si="1"/>
-        <v>6750</v>
-      </c>
-      <c r="D60" s="2">
+        <v>28792</v>
+      </c>
+      <c r="D64" s="6">
         <f t="shared" si="1"/>
-        <v>7956</v>
-      </c>
-      <c r="E60" s="2">
+        <v>24517</v>
+      </c>
+      <c r="E64" s="6">
         <f t="shared" si="1"/>
-        <v>6750</v>
-      </c>
-      <c r="F60" s="2">
+        <v>23346</v>
+      </c>
+      <c r="F64" s="6">
         <f t="shared" si="1"/>
-        <v>7956</v>
-      </c>
-      <c r="G60" s="2">
+        <v>23279</v>
+      </c>
+      <c r="G64" s="6">
         <f t="shared" si="1"/>
-        <v>6750</v>
-      </c>
-      <c r="H60" s="2">
+        <v>22073</v>
+      </c>
+      <c r="H64" s="6">
         <f t="shared" si="1"/>
-        <v>7956</v>
-      </c>
-      <c r="I60" s="2">
+        <v>23159</v>
+      </c>
+      <c r="I64" s="6">
         <f t="shared" si="1"/>
-        <v>6750</v>
-      </c>
-      <c r="J60" s="2">
+        <v>20401</v>
+      </c>
+      <c r="J64" s="6">
         <f t="shared" si="1"/>
-        <v>7956</v>
-      </c>
-      <c r="K60" s="2">
+        <v>21607</v>
+      </c>
+      <c r="K64" s="6">
         <f t="shared" si="1"/>
-        <v>6750</v>
-      </c>
-      <c r="L60" s="2">
+        <v>20401</v>
+      </c>
+      <c r="L64" s="6">
         <f t="shared" si="1"/>
-        <v>7956</v>
-      </c>
-      <c r="M60" s="2">
+        <v>21607</v>
+      </c>
+      <c r="M64" s="6">
         <f t="shared" si="1"/>
-        <v>6750</v>
-      </c>
-      <c r="N60" s="2">
+        <v>20401</v>
+      </c>
+      <c r="N64" s="6">
         <f t="shared" si="1"/>
-        <v>7956</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>23</v>
-      </c>
-      <c r="B62">
-        <v>10000</v>
-      </c>
-      <c r="C62">
-        <v>10000</v>
-      </c>
-      <c r="D62">
-        <v>10000</v>
-      </c>
-      <c r="E62">
-        <v>10000</v>
-      </c>
-      <c r="F62">
-        <v>10000</v>
-      </c>
-      <c r="G62">
-        <v>10000</v>
-      </c>
-      <c r="H62">
-        <v>10000</v>
-      </c>
-      <c r="I62">
-        <v>10000</v>
-      </c>
-      <c r="J62">
-        <v>10000</v>
-      </c>
-      <c r="K62">
-        <v>10000</v>
-      </c>
-      <c r="L62">
-        <v>10000</v>
-      </c>
-      <c r="M62">
-        <v>10000</v>
-      </c>
-      <c r="N62">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B65" s="6">
-        <f t="shared" ref="B65:N65" si="2">SUM(B54+B60+B62)</f>
-        <v>36306</v>
-      </c>
-      <c r="C65" s="6">
-        <f t="shared" si="2"/>
-        <v>25645</v>
-      </c>
-      <c r="D65" s="6">
-        <f t="shared" si="2"/>
-        <v>24517</v>
-      </c>
-      <c r="E65" s="6">
-        <f t="shared" si="2"/>
-        <v>23346</v>
-      </c>
-      <c r="F65" s="6">
-        <f t="shared" si="2"/>
-        <v>23279</v>
-      </c>
-      <c r="G65" s="6">
-        <f t="shared" si="2"/>
-        <v>22073</v>
-      </c>
-      <c r="H65" s="6">
-        <f t="shared" si="2"/>
-        <v>23159</v>
-      </c>
-      <c r="I65" s="6">
-        <f t="shared" si="2"/>
-        <v>20401</v>
-      </c>
-      <c r="J65" s="6">
-        <f t="shared" si="2"/>
-        <v>21607</v>
-      </c>
-      <c r="K65" s="6">
-        <f t="shared" si="2"/>
-        <v>20401</v>
-      </c>
-      <c r="L65" s="6">
-        <f t="shared" si="2"/>
-        <v>21607</v>
-      </c>
-      <c r="M65" s="6">
-        <f t="shared" si="2"/>
-        <v>20401</v>
-      </c>
-      <c r="N65" s="6">
-        <f t="shared" si="2"/>
         <v>21607</v>
       </c>
     </row>

--- a/Gastos.xlsx
+++ b/Gastos.xlsx
@@ -15,9 +15,9 @@
     <sheet name="Gastos Mensuales" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Gastos Mensuales'!$A$6:$N$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Gastos Mensuales'!$A$6:$N$40</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
   <si>
     <t>Julio</t>
   </si>
@@ -101,9 +101,6 @@
     <t>General (Comida y limpieza)</t>
   </si>
   <si>
-    <t>McDonalds</t>
-  </si>
-  <si>
     <t>TopTecnoUy (Disco SSD)</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
     <t>Google Cloud</t>
   </si>
   <si>
-    <t>Tintura del Sol (Iris)</t>
-  </si>
-  <si>
     <t>Focus Commit</t>
   </si>
   <si>
@@ -146,9 +140,6 @@
     <t>Algo</t>
   </si>
   <si>
-    <t>Netflix</t>
-  </si>
-  <si>
     <t>Española (Movil)</t>
   </si>
   <si>
@@ -198,12 +189,27 @@
   </si>
   <si>
     <t>Hering (3 Remeras para salir para verano)</t>
+  </si>
+  <si>
+    <t>PedidosYa (JP Chivito)</t>
+  </si>
+  <si>
+    <t>Cartuchos</t>
+  </si>
+  <si>
+    <t>PedidosYa (Mc Donalds)</t>
+  </si>
+  <si>
+    <t>Platzi (Anual)</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -258,21 +264,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,6 +337,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -346,7 +357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -396,7 +407,14 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -688,11 +706,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N64"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,22 +720,22 @@
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -783,14 +801,18 @@
       <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="18">
-        <v>610</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="B8" s="15">
+        <v>295</v>
+      </c>
+      <c r="C8" s="7">
+        <v>295</v>
+      </c>
+      <c r="D8" s="7">
+        <v>295</v>
+      </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -807,14 +829,10 @@
         <v>25</v>
       </c>
       <c r="B9" s="15">
-        <v>295</v>
-      </c>
-      <c r="C9" s="7">
-        <v>295</v>
-      </c>
-      <c r="D9" s="7">
-        <v>295</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -831,71 +849,95 @@
         <v>26</v>
       </c>
       <c r="B10" s="15">
-        <v>350</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
+        <v>90</v>
+      </c>
+      <c r="C10" s="7">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7">
+        <v>90</v>
+      </c>
+      <c r="E10" s="7">
+        <v>90</v>
+      </c>
+      <c r="F10" s="7">
+        <v>90</v>
+      </c>
+      <c r="G10" s="7">
+        <v>90</v>
+      </c>
+      <c r="H10" s="7">
+        <v>90</v>
+      </c>
+      <c r="I10" s="7">
+        <v>90</v>
+      </c>
+      <c r="J10" s="7">
+        <v>90</v>
+      </c>
+      <c r="K10" s="7">
+        <v>90</v>
+      </c>
+      <c r="L10" s="7">
+        <v>90</v>
+      </c>
+      <c r="M10" s="7">
+        <v>90</v>
+      </c>
+      <c r="N10" s="7">
+        <v>90</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="15">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C11" s="7">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D11" s="7">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E11" s="7">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="H11" s="7">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="I11" s="7">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="J11" s="7">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="K11" s="7">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="L11" s="7">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="M11" s="7">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="N11" s="7">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="15">
-        <v>2470</v>
+      <c r="B12" s="17">
+        <v>300</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -915,55 +957,43 @@
         <v>29</v>
       </c>
       <c r="B13" s="15">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="C13" s="7">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="D13" s="7">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="E13" s="7">
-        <v>70</v>
-      </c>
-      <c r="F13" s="7">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7">
-        <v>70</v>
-      </c>
-      <c r="H13" s="7">
-        <v>70</v>
-      </c>
-      <c r="I13" s="7">
-        <v>70</v>
-      </c>
-      <c r="J13" s="7">
-        <v>70</v>
-      </c>
-      <c r="K13" s="7">
-        <v>70</v>
-      </c>
-      <c r="L13" s="7">
-        <v>70</v>
-      </c>
-      <c r="M13" s="7">
-        <v>70</v>
-      </c>
-      <c r="N13" s="7">
-        <v>70</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="17">
-        <v>300</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="B14" s="15">
+        <v>837</v>
+      </c>
+      <c r="C14" s="7">
+        <v>837</v>
+      </c>
+      <c r="D14" s="7">
+        <v>837</v>
+      </c>
+      <c r="E14" s="7">
+        <v>837</v>
+      </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -979,20 +1009,26 @@
         <v>31</v>
       </c>
       <c r="B15" s="15">
-        <v>166</v>
+        <v>511</v>
       </c>
       <c r="C15" s="7">
-        <v>166</v>
+        <v>511</v>
       </c>
       <c r="D15" s="7">
-        <v>166</v>
+        <v>511</v>
       </c>
       <c r="E15" s="7">
-        <v>166</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+        <v>511</v>
+      </c>
+      <c r="F15" s="7">
+        <v>511</v>
+      </c>
+      <c r="G15" s="7">
+        <v>511</v>
+      </c>
+      <c r="H15" s="7">
+        <v>511</v>
+      </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
@@ -1005,17 +1041,11 @@
         <v>32</v>
       </c>
       <c r="B16" s="15">
-        <v>837</v>
-      </c>
-      <c r="C16" s="7">
-        <v>837</v>
-      </c>
-      <c r="D16" s="7">
-        <v>837</v>
-      </c>
-      <c r="E16" s="7">
-        <v>837</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -1031,46 +1061,68 @@
         <v>33</v>
       </c>
       <c r="B17" s="15">
-        <v>511</v>
+        <v>672</v>
       </c>
       <c r="C17" s="7">
-        <v>511</v>
-      </c>
-      <c r="D17" s="7">
-        <v>511</v>
-      </c>
-      <c r="E17" s="7">
-        <v>511</v>
-      </c>
-      <c r="F17" s="7">
-        <v>511</v>
-      </c>
-      <c r="G17" s="7">
-        <v>511</v>
-      </c>
-      <c r="H17" s="7">
-        <v>511</v>
-      </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
+        <v>672</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8">
+        <v>700</v>
+      </c>
+      <c r="F17" s="8">
+        <v>700</v>
+      </c>
+      <c r="G17" s="8">
+        <v>700</v>
+      </c>
+      <c r="H17" s="8">
+        <v>700</v>
+      </c>
+      <c r="I17" s="8">
+        <v>700</v>
+      </c>
+      <c r="J17" s="8">
+        <v>700</v>
+      </c>
+      <c r="K17" s="8">
+        <v>700</v>
+      </c>
+      <c r="L17" s="8">
+        <v>700</v>
+      </c>
+      <c r="M17" s="8">
+        <v>700</v>
+      </c>
+      <c r="N17" s="8">
+        <v>700</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="15">
-        <v>60</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+        <v>566</v>
+      </c>
+      <c r="C18" s="7">
+        <v>566</v>
+      </c>
+      <c r="D18" s="7">
+        <v>566</v>
+      </c>
+      <c r="E18" s="7">
+        <v>566</v>
+      </c>
+      <c r="F18" s="7">
+        <v>566</v>
+      </c>
+      <c r="G18" s="7">
+        <v>566</v>
+      </c>
+      <c r="H18" s="7">
+        <v>566</v>
+      </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -1083,70 +1135,46 @@
         <v>35</v>
       </c>
       <c r="B19" s="15">
-        <v>672</v>
+        <v>180</v>
       </c>
       <c r="C19" s="7">
-        <v>672</v>
+        <v>180</v>
       </c>
       <c r="D19" s="7">
-        <v>672</v>
-      </c>
-      <c r="E19" s="8">
-        <v>700</v>
-      </c>
-      <c r="F19" s="8">
-        <v>700</v>
-      </c>
-      <c r="G19" s="8">
-        <v>700</v>
-      </c>
-      <c r="H19" s="8">
-        <v>700</v>
-      </c>
-      <c r="I19" s="8">
-        <v>700</v>
-      </c>
-      <c r="J19" s="8">
-        <v>700</v>
-      </c>
-      <c r="K19" s="8">
-        <v>700</v>
-      </c>
-      <c r="L19" s="8">
-        <v>700</v>
-      </c>
-      <c r="M19" s="8">
-        <v>700</v>
-      </c>
-      <c r="N19" s="8">
-        <v>700</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="E19" s="7">
+        <v>180</v>
+      </c>
+      <c r="F19" s="7">
+        <v>180</v>
+      </c>
+      <c r="G19" s="7">
+        <v>180</v>
+      </c>
+      <c r="H19" s="7">
+        <v>180</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="15">
-        <v>566</v>
-      </c>
-      <c r="C20" s="7">
-        <v>566</v>
-      </c>
-      <c r="D20" s="7">
-        <v>566</v>
-      </c>
-      <c r="E20" s="7">
-        <v>566</v>
-      </c>
-      <c r="F20" s="7">
-        <v>566</v>
-      </c>
-      <c r="G20" s="7">
-        <v>566</v>
-      </c>
-      <c r="H20" s="7">
-        <v>566</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
@@ -1155,70 +1183,118 @@
       <c r="N20" s="7"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="15">
-        <v>180</v>
-      </c>
-      <c r="C21" s="7">
-        <v>180</v>
-      </c>
-      <c r="D21" s="7">
-        <v>180</v>
-      </c>
-      <c r="E21" s="7">
-        <v>180</v>
-      </c>
-      <c r="F21" s="7">
-        <v>180</v>
-      </c>
-      <c r="G21" s="7">
-        <v>180</v>
-      </c>
-      <c r="H21" s="7">
-        <v>180</v>
-      </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
+      <c r="A21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="18">
+        <v>70</v>
+      </c>
+      <c r="C21" s="9">
+        <v>70</v>
+      </c>
+      <c r="D21" s="9">
+        <v>70</v>
+      </c>
+      <c r="E21" s="9">
+        <v>70</v>
+      </c>
+      <c r="F21" s="9">
+        <v>70</v>
+      </c>
+      <c r="G21" s="9">
+        <v>70</v>
+      </c>
+      <c r="H21" s="9">
+        <v>70</v>
+      </c>
+      <c r="I21" s="9">
+        <v>70</v>
+      </c>
+      <c r="J21" s="9">
+        <v>70</v>
+      </c>
+      <c r="K21" s="9">
+        <v>70</v>
+      </c>
+      <c r="L21" s="9">
+        <v>70</v>
+      </c>
+      <c r="M21" s="9">
+        <v>70</v>
+      </c>
+      <c r="N21" s="9">
+        <v>70</v>
+      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="15">
+        <v>819</v>
+      </c>
+      <c r="C22" s="7">
+        <v>819</v>
+      </c>
+      <c r="D22" s="7">
+        <v>819</v>
+      </c>
+      <c r="E22" s="7">
+        <v>819</v>
+      </c>
+      <c r="F22" s="7">
+        <v>819</v>
+      </c>
+      <c r="G22" s="7">
+        <v>819</v>
+      </c>
+      <c r="H22" s="7">
+        <v>819</v>
+      </c>
+      <c r="I22" s="7">
+        <v>819</v>
+      </c>
+      <c r="J22" s="7">
+        <v>819</v>
+      </c>
+      <c r="K22" s="7">
+        <v>819</v>
+      </c>
+      <c r="L22" s="7">
+        <v>819</v>
+      </c>
+      <c r="M22" s="7">
+        <v>819</v>
+      </c>
+      <c r="N22" s="7">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="15">
-        <v>195</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="19">
-        <v>580</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="B23" s="15">
+        <v>295</v>
+      </c>
+      <c r="C23" s="7">
+        <v>295</v>
+      </c>
+      <c r="D23" s="7">
+        <v>295</v>
+      </c>
+      <c r="E23" s="7">
+        <v>295</v>
+      </c>
+      <c r="F23" s="7">
+        <v>295</v>
+      </c>
+      <c r="G23" s="7">
+        <v>295</v>
+      </c>
+      <c r="H23" s="7">
+        <v>295</v>
+      </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
@@ -1227,118 +1303,82 @@
       <c r="N23" s="7"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="19">
-        <v>70</v>
-      </c>
-      <c r="C24" s="9">
-        <v>70</v>
-      </c>
-      <c r="D24" s="9">
-        <v>70</v>
-      </c>
-      <c r="E24" s="9">
-        <v>70</v>
-      </c>
-      <c r="F24" s="9">
-        <v>70</v>
-      </c>
-      <c r="G24" s="9">
-        <v>70</v>
-      </c>
-      <c r="H24" s="9">
-        <v>70</v>
-      </c>
-      <c r="I24" s="9">
-        <v>70</v>
-      </c>
-      <c r="J24" s="9">
-        <v>70</v>
-      </c>
-      <c r="K24" s="9">
-        <v>70</v>
-      </c>
-      <c r="L24" s="9">
-        <v>70</v>
-      </c>
-      <c r="M24" s="9">
-        <v>70</v>
-      </c>
-      <c r="N24" s="9">
-        <v>70</v>
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="15">
+        <v>380</v>
+      </c>
+      <c r="C24" s="7">
+        <v>380</v>
+      </c>
+      <c r="D24" s="7">
+        <v>380</v>
+      </c>
+      <c r="E24" s="7">
+        <v>380</v>
+      </c>
+      <c r="F24" s="7">
+        <v>380</v>
+      </c>
+      <c r="G24" s="7">
+        <v>380</v>
+      </c>
+      <c r="H24" s="7">
+        <v>380</v>
+      </c>
+      <c r="I24" s="7">
+        <v>380</v>
+      </c>
+      <c r="J24" s="7">
+        <v>380</v>
+      </c>
+      <c r="K24" s="7">
+        <v>380</v>
+      </c>
+      <c r="L24" s="7">
+        <v>380</v>
+      </c>
+      <c r="M24" s="7">
+        <v>380</v>
+      </c>
+      <c r="N24" s="7">
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B25" s="15">
-        <v>819</v>
-      </c>
-      <c r="C25" s="7">
-        <v>819</v>
-      </c>
-      <c r="D25" s="7">
-        <v>819</v>
-      </c>
-      <c r="E25" s="7">
-        <v>819</v>
-      </c>
-      <c r="F25" s="7">
-        <v>819</v>
-      </c>
-      <c r="G25" s="7">
-        <v>819</v>
-      </c>
-      <c r="H25" s="7">
-        <v>819</v>
-      </c>
-      <c r="I25" s="7">
-        <v>819</v>
-      </c>
-      <c r="J25" s="7">
-        <v>819</v>
-      </c>
-      <c r="K25" s="7">
-        <v>819</v>
-      </c>
-      <c r="L25" s="7">
-        <v>819</v>
-      </c>
-      <c r="M25" s="7">
-        <v>819</v>
-      </c>
-      <c r="N25" s="7">
-        <v>819</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="15">
-        <v>295</v>
-      </c>
-      <c r="C26" s="7">
-        <v>295</v>
-      </c>
-      <c r="D26" s="7">
-        <v>295</v>
-      </c>
-      <c r="E26" s="7">
-        <v>295</v>
-      </c>
-      <c r="F26" s="7">
-        <v>295</v>
-      </c>
-      <c r="G26" s="7">
-        <v>295</v>
-      </c>
-      <c r="H26" s="7">
-        <v>295</v>
-      </c>
+      <c r="A26" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="17">
+        <v>240</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
@@ -1348,56 +1388,54 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B27" s="15">
-        <v>380</v>
-      </c>
-      <c r="C27" s="7">
-        <v>380</v>
-      </c>
-      <c r="D27" s="7">
-        <v>380</v>
-      </c>
-      <c r="E27" s="7">
-        <v>380</v>
-      </c>
-      <c r="F27" s="7">
-        <v>380</v>
-      </c>
-      <c r="G27" s="7">
-        <v>380</v>
-      </c>
-      <c r="H27" s="7">
-        <v>380</v>
-      </c>
-      <c r="I27" s="7">
-        <v>380</v>
-      </c>
-      <c r="J27" s="7">
-        <v>380</v>
-      </c>
-      <c r="K27" s="7">
-        <v>380</v>
-      </c>
-      <c r="L27" s="7">
-        <v>380</v>
-      </c>
-      <c r="M27" s="7">
-        <v>380</v>
-      </c>
-      <c r="N27" s="7">
-        <v>380</v>
+        <v>1073</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="8">
+        <v>1400</v>
+      </c>
+      <c r="F27" s="8">
+        <v>1400</v>
+      </c>
+      <c r="G27" s="8">
+        <v>1400</v>
+      </c>
+      <c r="H27" s="8">
+        <v>1400</v>
+      </c>
+      <c r="I27" s="8">
+        <v>1400</v>
+      </c>
+      <c r="J27" s="8">
+        <v>1400</v>
+      </c>
+      <c r="K27" s="8">
+        <v>1400</v>
+      </c>
+      <c r="L27" s="8">
+        <v>1400</v>
+      </c>
+      <c r="M27" s="8">
+        <v>1400</v>
+      </c>
+      <c r="N27" s="8">
+        <v>1400</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B28" s="15">
-        <v>168</v>
-      </c>
-      <c r="C28" s="7"/>
+        <v>1098</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1098</v>
+      </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -1411,11 +1449,11 @@
       <c r="N28" s="7"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="17">
-        <v>240</v>
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="15">
+        <v>367</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1432,57 +1470,35 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B30" s="15">
-        <v>1073</v>
-      </c>
-      <c r="C30" s="7"/>
+        <v>334</v>
+      </c>
+      <c r="C30" s="7">
+        <v>334</v>
+      </c>
       <c r="D30" s="7"/>
-      <c r="E30" s="8">
-        <v>1400</v>
-      </c>
-      <c r="F30" s="8">
-        <v>1400</v>
-      </c>
-      <c r="G30" s="8">
-        <v>1400</v>
-      </c>
-      <c r="H30" s="8">
-        <v>1400</v>
-      </c>
-      <c r="I30" s="8">
-        <v>1400</v>
-      </c>
-      <c r="J30" s="8">
-        <v>1400</v>
-      </c>
-      <c r="K30" s="8">
-        <v>1400</v>
-      </c>
-      <c r="L30" s="8">
-        <v>1400</v>
-      </c>
-      <c r="M30" s="8">
-        <v>1400</v>
-      </c>
-      <c r="N30" s="8">
-        <v>1400</v>
-      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>43</v>
       </c>
       <c r="B31" s="15">
-        <v>1098</v>
-      </c>
-      <c r="C31" s="7">
-        <v>1098</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1098</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
@@ -1499,11 +1515,17 @@
         <v>44</v>
       </c>
       <c r="B32" s="15">
-        <v>367</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
+        <v>270</v>
+      </c>
+      <c r="C32" s="7">
+        <v>270</v>
+      </c>
+      <c r="D32" s="7">
+        <v>270</v>
+      </c>
+      <c r="E32" s="7">
+        <v>270</v>
+      </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
@@ -1519,61 +1541,109 @@
         <v>45</v>
       </c>
       <c r="B33" s="15">
-        <v>334</v>
+        <v>122</v>
       </c>
       <c r="C33" s="7">
-        <v>334</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="D33" s="7">
+        <v>122</v>
+      </c>
+      <c r="E33" s="7">
+        <v>122</v>
+      </c>
+      <c r="F33" s="7">
+        <v>122</v>
+      </c>
+      <c r="G33" s="7">
+        <v>122</v>
+      </c>
+      <c r="H33" s="7">
+        <v>122</v>
+      </c>
+      <c r="I33" s="7">
+        <v>122</v>
+      </c>
+      <c r="J33" s="7">
+        <v>122</v>
+      </c>
+      <c r="K33" s="7">
+        <v>122</v>
+      </c>
+      <c r="L33" s="7">
+        <v>122</v>
+      </c>
+      <c r="M33" s="7">
+        <v>122</v>
+      </c>
+      <c r="N33" s="7">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="15">
-        <v>62</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="B34" s="16">
+        <v>3600</v>
+      </c>
+      <c r="C34" s="11">
+        <v>5680</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="I34" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="J34" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="K34" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="L34" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="M34" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="N34" s="22" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="15">
-        <v>270</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B35" s="15"/>
       <c r="C35" s="7">
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="D35" s="7">
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="E35" s="7">
-        <v>270</v>
-      </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
+        <v>120</v>
+      </c>
+      <c r="F35" s="7">
+        <v>120</v>
+      </c>
+      <c r="G35" s="7">
+        <v>120</v>
+      </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
@@ -1584,57 +1654,31 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" s="15">
-        <v>122</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B36" s="15"/>
       <c r="C36" s="7">
-        <v>122</v>
-      </c>
-      <c r="D36" s="7">
-        <v>122</v>
-      </c>
-      <c r="E36" s="7">
-        <v>122</v>
-      </c>
-      <c r="F36" s="7">
-        <v>122</v>
-      </c>
-      <c r="G36" s="7">
-        <v>122</v>
-      </c>
-      <c r="H36" s="7">
-        <v>122</v>
-      </c>
-      <c r="I36" s="7">
-        <v>122</v>
-      </c>
-      <c r="J36" s="7">
-        <v>122</v>
-      </c>
-      <c r="K36" s="7">
-        <v>122</v>
-      </c>
-      <c r="L36" s="7">
-        <v>122</v>
-      </c>
-      <c r="M36" s="7">
-        <v>122</v>
-      </c>
-      <c r="N36" s="7">
-        <v>122</v>
-      </c>
+        <v>1697</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="16">
-        <v>3600</v>
-      </c>
-      <c r="C37" s="11">
-        <v>3450</v>
+      <c r="B37" s="21"/>
+      <c r="C37" s="20">
+        <v>724</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -1649,25 +1693,17 @@
       <c r="N37" s="7"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="19" t="s">
         <v>55</v>
       </c>
       <c r="B38" s="15"/>
-      <c r="C38" s="7">
-        <v>120</v>
-      </c>
-      <c r="D38" s="7">
-        <v>120</v>
-      </c>
-      <c r="E38" s="7">
-        <v>120</v>
-      </c>
-      <c r="F38" s="7">
-        <v>120</v>
-      </c>
-      <c r="G38" s="7">
-        <v>120</v>
-      </c>
+      <c r="C38" s="20">
+        <v>1245</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
@@ -1677,12 +1713,12 @@
       <c r="N38" s="7"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="7">
-        <v>1697</v>
+      <c r="B39" s="21"/>
+      <c r="C39" s="20">
+        <v>640</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -1697,9 +1733,14 @@
       <c r="N39" s="7"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
+      <c r="D40" s="7">
+        <v>5690</v>
+      </c>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
@@ -1847,455 +1888,407 @@
       <c r="N49" s="7"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
+      <c r="A50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="2">
+        <f>SUM(B8:B49)</f>
+        <v>13190</v>
+      </c>
+      <c r="C50" s="2">
+        <f>SUM(C8:C49)</f>
+        <v>16881</v>
+      </c>
+      <c r="D50" s="2">
+        <f>SUM(D8:D49)</f>
+        <v>10481</v>
+      </c>
+      <c r="E50" s="2">
+        <f>SUM(E8:E49)</f>
+        <v>6596</v>
+      </c>
+      <c r="F50" s="2">
+        <f>SUM(F8:F49)</f>
+        <v>5323</v>
+      </c>
+      <c r="G50" s="2">
+        <f>SUM(G8:G49)</f>
+        <v>5323</v>
+      </c>
+      <c r="H50" s="2">
+        <f>SUM(H8:H49)</f>
+        <v>5203</v>
+      </c>
+      <c r="I50" s="2">
+        <f>SUM(I8:I49)</f>
+        <v>3651</v>
+      </c>
+      <c r="J50" s="2">
+        <f>SUM(J8:J49)</f>
+        <v>3651</v>
+      </c>
+      <c r="K50" s="2">
+        <f>SUM(K8:K49)</f>
+        <v>3651</v>
+      </c>
+      <c r="L50" s="2">
+        <f>SUM(L8:L49)</f>
+        <v>3651</v>
+      </c>
+      <c r="M50" s="2">
+        <f>SUM(M8:M49)</f>
+        <v>3651</v>
+      </c>
+      <c r="N50" s="2">
+        <f>SUM(N8:N49)</f>
+        <v>3651</v>
+      </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
+      <c r="A51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52">
+        <v>2550</v>
+      </c>
+      <c r="C52">
+        <v>2550</v>
+      </c>
+      <c r="D52">
+        <v>2550</v>
+      </c>
+      <c r="E52">
+        <v>2550</v>
+      </c>
+      <c r="F52">
+        <v>2550</v>
+      </c>
+      <c r="G52">
+        <v>2550</v>
+      </c>
+      <c r="H52">
+        <v>2550</v>
+      </c>
+      <c r="I52">
+        <v>2550</v>
+      </c>
+      <c r="J52">
+        <v>2550</v>
+      </c>
+      <c r="K52">
+        <v>2550</v>
+      </c>
+      <c r="L52">
+        <v>2550</v>
+      </c>
+      <c r="M52">
+        <v>2550</v>
+      </c>
+      <c r="N52">
+        <v>2550</v>
+      </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" s="2">
-        <f>SUM(B8:B52)</f>
-        <v>16850</v>
-      </c>
-      <c r="C53" s="2">
-        <f>SUM(C8:C52)</f>
-        <v>12042</v>
-      </c>
-      <c r="D53" s="2">
-        <f>SUM(D8:D52)</f>
-        <v>6561</v>
-      </c>
-      <c r="E53" s="2">
-        <f>SUM(E8:E52)</f>
-        <v>6596</v>
-      </c>
-      <c r="F53" s="2">
-        <f>SUM(F8:F52)</f>
-        <v>5323</v>
-      </c>
-      <c r="G53" s="2">
-        <f>SUM(G8:G52)</f>
-        <v>5323</v>
-      </c>
-      <c r="H53" s="2">
-        <f>SUM(H8:H52)</f>
-        <v>5203</v>
-      </c>
-      <c r="I53" s="2">
-        <f>SUM(I8:I52)</f>
-        <v>3651</v>
-      </c>
-      <c r="J53" s="2">
-        <f>SUM(J8:J52)</f>
-        <v>3651</v>
-      </c>
-      <c r="K53" s="2">
-        <f>SUM(K8:K52)</f>
-        <v>3651</v>
-      </c>
-      <c r="L53" s="2">
-        <f>SUM(L8:L52)</f>
-        <v>3651</v>
-      </c>
-      <c r="M53" s="2">
-        <f>SUM(M8:M52)</f>
-        <v>3651</v>
-      </c>
-      <c r="N53" s="2">
-        <f>SUM(N8:N52)</f>
-        <v>3651</v>
+      <c r="A53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53">
+        <v>2400</v>
+      </c>
+      <c r="F53">
+        <v>1206</v>
+      </c>
+      <c r="H53">
+        <v>1206</v>
+      </c>
+      <c r="J53">
+        <v>1206</v>
+      </c>
+      <c r="L53">
+        <v>1206</v>
+      </c>
+      <c r="N53">
+        <v>1206</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
+      <c r="A54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54">
+        <v>1700</v>
+      </c>
+      <c r="C54">
+        <v>1700</v>
+      </c>
+      <c r="D54">
+        <v>1700</v>
+      </c>
+      <c r="E54">
+        <v>1700</v>
+      </c>
+      <c r="F54">
+        <v>1700</v>
+      </c>
+      <c r="G54">
+        <v>1700</v>
+      </c>
+      <c r="H54">
+        <v>1700</v>
+      </c>
+      <c r="I54">
+        <v>1700</v>
+      </c>
+      <c r="J54">
+        <v>1700</v>
+      </c>
+      <c r="K54">
+        <v>1700</v>
+      </c>
+      <c r="L54">
+        <v>1700</v>
+      </c>
+      <c r="M54">
+        <v>1700</v>
+      </c>
+      <c r="N54">
+        <v>1700</v>
+      </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B55">
-        <v>2550</v>
+        <v>4000</v>
       </c>
       <c r="C55">
-        <v>2550</v>
+        <v>3500</v>
       </c>
       <c r="D55">
-        <v>2550</v>
+        <v>2500</v>
       </c>
       <c r="E55">
-        <v>2550</v>
+        <v>2500</v>
       </c>
       <c r="F55">
-        <v>2550</v>
+        <v>2500</v>
       </c>
       <c r="G55">
-        <v>2550</v>
+        <v>2500</v>
       </c>
       <c r="H55">
-        <v>2550</v>
+        <v>2500</v>
       </c>
       <c r="I55">
-        <v>2550</v>
+        <v>2500</v>
       </c>
       <c r="J55">
-        <v>2550</v>
+        <v>2500</v>
       </c>
       <c r="K55">
-        <v>2550</v>
+        <v>2500</v>
       </c>
       <c r="L55">
-        <v>2550</v>
+        <v>2500</v>
       </c>
       <c r="M55">
-        <v>2550</v>
+        <v>2500</v>
       </c>
       <c r="N55">
-        <v>2550</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B56">
-        <v>1206</v>
-      </c>
-      <c r="D56">
-        <v>1206</v>
-      </c>
-      <c r="F56">
-        <v>1206</v>
-      </c>
-      <c r="H56">
-        <v>1206</v>
-      </c>
-      <c r="J56">
-        <v>1206</v>
-      </c>
-      <c r="L56">
-        <v>1206</v>
-      </c>
-      <c r="N56">
-        <v>1206</v>
+      <c r="A56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" s="2">
+        <f t="shared" ref="B56:N56" si="0">SUM(B52:B55)</f>
+        <v>8250</v>
+      </c>
+      <c r="C56" s="2">
+        <f t="shared" si="0"/>
+        <v>7750</v>
+      </c>
+      <c r="D56" s="2">
+        <f t="shared" si="0"/>
+        <v>9150</v>
+      </c>
+      <c r="E56" s="2">
+        <f t="shared" si="0"/>
+        <v>6750</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" si="0"/>
+        <v>7956</v>
+      </c>
+      <c r="G56" s="2">
+        <f t="shared" si="0"/>
+        <v>6750</v>
+      </c>
+      <c r="H56" s="2">
+        <f t="shared" si="0"/>
+        <v>7956</v>
+      </c>
+      <c r="I56" s="2">
+        <f t="shared" si="0"/>
+        <v>6750</v>
+      </c>
+      <c r="J56" s="2">
+        <f t="shared" si="0"/>
+        <v>7956</v>
+      </c>
+      <c r="K56" s="2">
+        <f t="shared" si="0"/>
+        <v>6750</v>
+      </c>
+      <c r="L56" s="2">
+        <f t="shared" si="0"/>
+        <v>7956</v>
+      </c>
+      <c r="M56" s="2">
+        <f t="shared" si="0"/>
+        <v>6750</v>
+      </c>
+      <c r="N56" s="2">
+        <f t="shared" si="0"/>
+        <v>7956</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>16</v>
-      </c>
-      <c r="B57">
-        <v>1700</v>
-      </c>
-      <c r="C57">
-        <v>1700</v>
-      </c>
-      <c r="D57">
-        <v>1700</v>
-      </c>
-      <c r="E57">
-        <v>1700</v>
-      </c>
-      <c r="F57">
-        <v>1700</v>
-      </c>
-      <c r="G57">
-        <v>1700</v>
-      </c>
-      <c r="H57">
-        <v>1700</v>
-      </c>
-      <c r="I57">
-        <v>1700</v>
-      </c>
-      <c r="J57">
-        <v>1700</v>
-      </c>
-      <c r="K57">
-        <v>1700</v>
-      </c>
-      <c r="L57">
-        <v>1700</v>
-      </c>
-      <c r="M57">
-        <v>1700</v>
-      </c>
-      <c r="N57">
-        <v>1700</v>
-      </c>
+      <c r="A57" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B58">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="C58">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="D58">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="E58">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="F58">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="G58">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="H58">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="I58">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="J58">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="K58">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="L58">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="M58">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="N58">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B59" s="2">
-        <f t="shared" ref="B59:N59" si="0">SUM(B55:B58)</f>
-        <v>9456</v>
-      </c>
-      <c r="C59" s="2">
-        <f t="shared" si="0"/>
-        <v>6750</v>
-      </c>
-      <c r="D59" s="2">
-        <f t="shared" si="0"/>
-        <v>7956</v>
-      </c>
-      <c r="E59" s="2">
-        <f t="shared" si="0"/>
-        <v>6750</v>
-      </c>
-      <c r="F59" s="2">
-        <f t="shared" si="0"/>
-        <v>7956</v>
-      </c>
-      <c r="G59" s="2">
-        <f t="shared" si="0"/>
-        <v>6750</v>
-      </c>
-      <c r="H59" s="2">
-        <f t="shared" si="0"/>
-        <v>7956</v>
-      </c>
-      <c r="I59" s="2">
-        <f t="shared" si="0"/>
-        <v>6750</v>
-      </c>
-      <c r="J59" s="2">
-        <f t="shared" si="0"/>
-        <v>7956</v>
-      </c>
-      <c r="K59" s="2">
-        <f t="shared" si="0"/>
-        <v>6750</v>
-      </c>
-      <c r="L59" s="2">
-        <f t="shared" si="0"/>
-        <v>7956</v>
-      </c>
-      <c r="M59" s="2">
-        <f t="shared" si="0"/>
-        <v>6750</v>
-      </c>
-      <c r="N59" s="2">
-        <f t="shared" si="0"/>
-        <v>7956</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>23</v>
-      </c>
-      <c r="B61">
         <v>10000</v>
       </c>
-      <c r="C61">
-        <v>10000</v>
-      </c>
-      <c r="D61">
-        <v>10000</v>
-      </c>
-      <c r="E61">
-        <v>10000</v>
-      </c>
-      <c r="F61">
-        <v>10000</v>
-      </c>
-      <c r="G61">
-        <v>10000</v>
-      </c>
-      <c r="H61">
-        <v>10000</v>
-      </c>
-      <c r="I61">
-        <v>10000</v>
-      </c>
-      <c r="J61">
-        <v>10000</v>
-      </c>
-      <c r="K61">
-        <v>10000</v>
-      </c>
-      <c r="L61">
-        <v>10000</v>
-      </c>
-      <c r="M61">
-        <v>10000</v>
-      </c>
-      <c r="N61">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+    </row>
+    <row r="61" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B64" s="6">
-        <f t="shared" ref="B64:N64" si="1">SUM(B53+B59+B61)</f>
-        <v>36306</v>
-      </c>
-      <c r="C64" s="6">
+      <c r="B61" s="6">
+        <f t="shared" ref="B61:N61" si="1">SUM(B50+B56+B58)</f>
+        <v>31440</v>
+      </c>
+      <c r="C61" s="6">
         <f t="shared" si="1"/>
-        <v>28792</v>
-      </c>
-      <c r="D64" s="6">
+        <v>34631</v>
+      </c>
+      <c r="D61" s="6">
         <f t="shared" si="1"/>
-        <v>24517</v>
-      </c>
-      <c r="E64" s="6">
+        <v>29631</v>
+      </c>
+      <c r="E61" s="6">
         <f t="shared" si="1"/>
         <v>23346</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F61" s="6">
         <f t="shared" si="1"/>
         <v>23279</v>
       </c>
-      <c r="G64" s="6">
+      <c r="G61" s="6">
         <f t="shared" si="1"/>
         <v>22073</v>
       </c>
-      <c r="H64" s="6">
+      <c r="H61" s="6">
         <f t="shared" si="1"/>
         <v>23159</v>
       </c>
-      <c r="I64" s="6">
+      <c r="I61" s="6">
         <f t="shared" si="1"/>
         <v>20401</v>
       </c>
-      <c r="J64" s="6">
+      <c r="J61" s="6">
         <f t="shared" si="1"/>
         <v>21607</v>
       </c>
-      <c r="K64" s="6">
+      <c r="K61" s="6">
         <f t="shared" si="1"/>
         <v>20401</v>
       </c>
-      <c r="L64" s="6">
+      <c r="L61" s="6">
         <f t="shared" si="1"/>
         <v>21607</v>
       </c>
-      <c r="M64" s="6">
+      <c r="M61" s="6">
         <f t="shared" si="1"/>
         <v>20401</v>
       </c>
-      <c r="N64" s="6">
+      <c r="N61" s="6">
         <f t="shared" si="1"/>
         <v>21607</v>
       </c>

--- a/Gastos.xlsx
+++ b/Gastos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
   <si>
     <t>Julio</t>
   </si>
@@ -204,6 +204,18 @@
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>Legacy (Remeras Trabajo)</t>
+  </si>
+  <si>
+    <t>Filtro de Agua</t>
+  </si>
+  <si>
+    <t>Legacy (Jean para salir)</t>
+  </si>
+  <si>
+    <t>Recarga celular</t>
   </si>
 </sst>
 </file>
@@ -706,11 +718,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+      <pane ySplit="6" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1536,7 +1548,7 @@
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -1580,7 +1592,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -1624,7 +1636,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -1652,7 +1664,7 @@
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -1672,7 +1684,7 @@
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>54</v>
       </c>
@@ -1692,7 +1704,7 @@
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>55</v>
       </c>
@@ -1712,7 +1724,7 @@
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
         <v>56</v>
       </c>
@@ -1732,7 +1744,7 @@
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -1752,10 +1764,15 @@
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>59</v>
+      </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
+      <c r="D41" s="7">
+        <v>1935</v>
+      </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
@@ -1767,26 +1784,61 @@
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D42" s="7">
+        <v>329</v>
+      </c>
+      <c r="E42" s="7">
+        <v>329</v>
+      </c>
+      <c r="F42" s="7">
+        <v>329</v>
+      </c>
+      <c r="G42" s="7">
+        <v>329</v>
+      </c>
+      <c r="H42" s="7">
+        <v>329</v>
+      </c>
+      <c r="I42" s="7">
+        <v>329</v>
+      </c>
+      <c r="J42" s="7">
+        <v>329</v>
+      </c>
+      <c r="K42" s="7">
+        <v>329</v>
+      </c>
+      <c r="L42" s="7">
+        <v>329</v>
+      </c>
+      <c r="M42" s="7">
+        <v>329</v>
+      </c>
+      <c r="N42" s="7">
+        <v>329</v>
+      </c>
+      <c r="O42" s="7">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>61</v>
+      </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
+      <c r="D43" s="7">
+        <v>1345</v>
+      </c>
+      <c r="E43" s="7">
+        <v>1345</v>
+      </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
@@ -1797,10 +1849,15 @@
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>62</v>
+      </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
+      <c r="D44" s="7">
+        <v>100</v>
+      </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
@@ -1812,7 +1869,7 @@
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1827,7 +1884,7 @@
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1842,7 +1899,7 @@
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -1857,7 +1914,7 @@
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -1892,56 +1949,56 @@
         <v>13</v>
       </c>
       <c r="B50" s="2">
-        <f>SUM(B8:B49)</f>
+        <f t="shared" ref="B50:N50" si="0">SUM(B8:B49)</f>
         <v>13190</v>
       </c>
       <c r="C50" s="2">
-        <f>SUM(C8:C49)</f>
+        <f t="shared" si="0"/>
         <v>16881</v>
       </c>
       <c r="D50" s="2">
-        <f>SUM(D8:D49)</f>
-        <v>10481</v>
+        <f t="shared" si="0"/>
+        <v>14190</v>
       </c>
       <c r="E50" s="2">
-        <f>SUM(E8:E49)</f>
-        <v>6596</v>
+        <f t="shared" si="0"/>
+        <v>8270</v>
       </c>
       <c r="F50" s="2">
-        <f>SUM(F8:F49)</f>
-        <v>5323</v>
+        <f t="shared" si="0"/>
+        <v>5652</v>
       </c>
       <c r="G50" s="2">
-        <f>SUM(G8:G49)</f>
-        <v>5323</v>
+        <f t="shared" si="0"/>
+        <v>5652</v>
       </c>
       <c r="H50" s="2">
-        <f>SUM(H8:H49)</f>
-        <v>5203</v>
+        <f t="shared" si="0"/>
+        <v>5532</v>
       </c>
       <c r="I50" s="2">
-        <f>SUM(I8:I49)</f>
-        <v>3651</v>
+        <f t="shared" si="0"/>
+        <v>3980</v>
       </c>
       <c r="J50" s="2">
-        <f>SUM(J8:J49)</f>
-        <v>3651</v>
+        <f t="shared" si="0"/>
+        <v>3980</v>
       </c>
       <c r="K50" s="2">
-        <f>SUM(K8:K49)</f>
-        <v>3651</v>
+        <f t="shared" si="0"/>
+        <v>3980</v>
       </c>
       <c r="L50" s="2">
-        <f>SUM(L8:L49)</f>
-        <v>3651</v>
+        <f t="shared" si="0"/>
+        <v>3980</v>
       </c>
       <c r="M50" s="2">
-        <f>SUM(M8:M49)</f>
-        <v>3651</v>
+        <f t="shared" si="0"/>
+        <v>3980</v>
       </c>
       <c r="N50" s="2">
-        <f>SUM(N8:N49)</f>
-        <v>3651</v>
+        <f t="shared" si="0"/>
+        <v>3980</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -2084,7 +2141,7 @@
         <v>3500</v>
       </c>
       <c r="D55">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="E55">
         <v>2500</v>
@@ -2122,55 +2179,55 @@
         <v>21</v>
       </c>
       <c r="B56" s="2">
-        <f t="shared" ref="B56:N56" si="0">SUM(B52:B55)</f>
+        <f t="shared" ref="B56:N56" si="1">SUM(B52:B55)</f>
         <v>8250</v>
       </c>
       <c r="C56" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7750</v>
       </c>
       <c r="D56" s="2">
-        <f t="shared" si="0"/>
-        <v>9150</v>
+        <f t="shared" si="1"/>
+        <v>8850</v>
       </c>
       <c r="E56" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6750</v>
       </c>
       <c r="F56" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7956</v>
       </c>
       <c r="G56" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6750</v>
       </c>
       <c r="H56" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7956</v>
       </c>
       <c r="I56" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6750</v>
       </c>
       <c r="J56" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7956</v>
       </c>
       <c r="K56" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6750</v>
       </c>
       <c r="L56" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7956</v>
       </c>
       <c r="M56" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6750</v>
       </c>
       <c r="N56" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7956</v>
       </c>
     </row>
@@ -2241,56 +2298,56 @@
         <v>22</v>
       </c>
       <c r="B61" s="6">
-        <f t="shared" ref="B61:N61" si="1">SUM(B50+B56+B58)</f>
+        <f t="shared" ref="B61:N61" si="2">SUM(B50+B56+B58)</f>
         <v>31440</v>
       </c>
       <c r="C61" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34631</v>
       </c>
       <c r="D61" s="6">
-        <f t="shared" si="1"/>
-        <v>29631</v>
+        <f t="shared" si="2"/>
+        <v>33040</v>
       </c>
       <c r="E61" s="6">
-        <f t="shared" si="1"/>
-        <v>23346</v>
+        <f t="shared" si="2"/>
+        <v>25020</v>
       </c>
       <c r="F61" s="6">
-        <f t="shared" si="1"/>
-        <v>23279</v>
+        <f t="shared" si="2"/>
+        <v>23608</v>
       </c>
       <c r="G61" s="6">
-        <f t="shared" si="1"/>
-        <v>22073</v>
+        <f t="shared" si="2"/>
+        <v>22402</v>
       </c>
       <c r="H61" s="6">
-        <f t="shared" si="1"/>
-        <v>23159</v>
+        <f t="shared" si="2"/>
+        <v>23488</v>
       </c>
       <c r="I61" s="6">
-        <f t="shared" si="1"/>
-        <v>20401</v>
+        <f t="shared" si="2"/>
+        <v>20730</v>
       </c>
       <c r="J61" s="6">
-        <f t="shared" si="1"/>
-        <v>21607</v>
+        <f t="shared" si="2"/>
+        <v>21936</v>
       </c>
       <c r="K61" s="6">
-        <f t="shared" si="1"/>
-        <v>20401</v>
+        <f t="shared" si="2"/>
+        <v>20730</v>
       </c>
       <c r="L61" s="6">
-        <f t="shared" si="1"/>
-        <v>21607</v>
+        <f t="shared" si="2"/>
+        <v>21936</v>
       </c>
       <c r="M61" s="6">
-        <f t="shared" si="1"/>
-        <v>20401</v>
+        <f t="shared" si="2"/>
+        <v>20730</v>
       </c>
       <c r="N61" s="6">
-        <f t="shared" si="1"/>
-        <v>21607</v>
+        <f t="shared" si="2"/>
+        <v>21936</v>
       </c>
     </row>
   </sheetData>

--- a/Gastos.xlsx
+++ b/Gastos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
   <si>
     <t>Julio</t>
   </si>
@@ -273,6 +273,12 @@
   </si>
   <si>
     <t>Recarga celular (actualizado al 19/01/21)</t>
+  </si>
+  <si>
+    <t>Libro</t>
+  </si>
+  <si>
+    <t>Bicicleta Spinning</t>
   </si>
 </sst>
 </file>
@@ -719,11 +725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L78"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
+      <pane ySplit="6" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1637,20 +1643,46 @@
       <c r="K41" s="7"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>83</v>
+      </c>
       <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
+      <c r="C42" s="7">
+        <v>1080</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1080</v>
+      </c>
+      <c r="E42" s="7">
+        <v>1080</v>
+      </c>
+      <c r="F42" s="7">
+        <v>1080</v>
+      </c>
+      <c r="G42" s="7">
+        <v>1080</v>
+      </c>
+      <c r="H42" s="7">
+        <v>1080</v>
+      </c>
+      <c r="I42" s="7">
+        <v>1080</v>
+      </c>
+      <c r="J42" s="7">
+        <v>1080</v>
+      </c>
+      <c r="K42" s="7">
+        <v>1080</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>82</v>
+      </c>
       <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
+      <c r="C43" s="7">
+        <v>450</v>
+      </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
@@ -1661,995 +1693,1019 @@
       <c r="K43" s="7"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="18">
-        <f>SUM(B8:B43)</f>
+      <c r="B46" s="18">
+        <f t="shared" ref="B46:K46" si="0">SUM(B8:B45)</f>
         <v>13527</v>
       </c>
-      <c r="C44" s="18">
-        <f>SUM(C8:C43)</f>
-        <v>9000</v>
-      </c>
-      <c r="D44" s="18">
-        <f>SUM(D8:D43)</f>
-        <v>7150</v>
-      </c>
-      <c r="E44" s="18">
-        <f>SUM(E8:E43)</f>
-        <v>7030</v>
-      </c>
-      <c r="F44" s="18">
-        <f>SUM(F8:F43)</f>
-        <v>6107</v>
-      </c>
-      <c r="G44" s="18">
-        <f>SUM(G8:G43)</f>
-        <v>5750</v>
-      </c>
-      <c r="H44" s="18">
-        <f>SUM(H8:H43)</f>
-        <v>5750</v>
-      </c>
-      <c r="I44" s="18">
-        <f>SUM(I8:I43)</f>
-        <v>5750</v>
-      </c>
-      <c r="J44" s="18">
-        <f>SUM(J8:J43)</f>
-        <v>5750</v>
-      </c>
-      <c r="K44" s="18">
-        <f>SUM(K8:K43)</f>
-        <v>5750</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="C46" s="18">
+        <f t="shared" si="0"/>
+        <v>10530</v>
+      </c>
+      <c r="D46" s="18">
+        <f t="shared" si="0"/>
+        <v>8230</v>
+      </c>
+      <c r="E46" s="18">
+        <f t="shared" si="0"/>
+        <v>8110</v>
+      </c>
+      <c r="F46" s="18">
+        <f t="shared" si="0"/>
+        <v>7187</v>
+      </c>
+      <c r="G46" s="18">
+        <f t="shared" si="0"/>
+        <v>6830</v>
+      </c>
+      <c r="H46" s="18">
+        <f t="shared" si="0"/>
+        <v>6830</v>
+      </c>
+      <c r="I46" s="18">
+        <f t="shared" si="0"/>
+        <v>6830</v>
+      </c>
+      <c r="J46" s="18">
+        <f t="shared" si="0"/>
+        <v>6830</v>
+      </c>
+      <c r="K46" s="18">
+        <f t="shared" si="0"/>
+        <v>6830</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46">
-        <v>2550</v>
-      </c>
-      <c r="C46">
-        <v>2550</v>
-      </c>
-      <c r="D46">
-        <v>2550</v>
-      </c>
-      <c r="E46">
-        <v>2550</v>
-      </c>
-      <c r="F46">
-        <v>2550</v>
-      </c>
-      <c r="G46">
-        <v>2550</v>
-      </c>
-      <c r="H46">
-        <v>2550</v>
-      </c>
-      <c r="I46">
-        <v>2550</v>
-      </c>
-      <c r="J46">
-        <v>2550</v>
-      </c>
-      <c r="K46">
-        <v>2550</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47">
-        <v>1206</v>
-      </c>
-      <c r="E47">
-        <v>1206</v>
-      </c>
-      <c r="G47">
-        <v>1206</v>
-      </c>
-      <c r="I47">
-        <v>1206</v>
-      </c>
-      <c r="K47">
-        <v>1206</v>
-      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B48">
-        <v>1700</v>
+        <v>2550</v>
       </c>
       <c r="C48">
-        <v>1700</v>
+        <v>2550</v>
       </c>
       <c r="D48">
-        <v>1700</v>
+        <v>2550</v>
       </c>
       <c r="E48">
-        <v>1700</v>
+        <v>2550</v>
       </c>
       <c r="F48">
-        <v>1700</v>
+        <v>2550</v>
       </c>
       <c r="G48">
-        <v>1700</v>
+        <v>2550</v>
       </c>
       <c r="H48">
-        <v>1700</v>
+        <v>2550</v>
       </c>
       <c r="I48">
-        <v>1700</v>
+        <v>2550</v>
       </c>
       <c r="J48">
-        <v>1700</v>
+        <v>2550</v>
       </c>
       <c r="K48">
-        <v>1700</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49">
-        <v>2500</v>
+        <v>13</v>
       </c>
       <c r="C49">
-        <v>2500</v>
-      </c>
-      <c r="D49">
-        <v>2500</v>
+        <v>1206</v>
       </c>
       <c r="E49">
-        <v>2500</v>
-      </c>
-      <c r="F49">
-        <v>2500</v>
+        <v>1206</v>
       </c>
       <c r="G49">
-        <v>2500</v>
-      </c>
-      <c r="H49">
-        <v>2500</v>
+        <v>1206</v>
       </c>
       <c r="I49">
-        <v>2500</v>
-      </c>
-      <c r="J49">
-        <v>2500</v>
+        <v>1206</v>
       </c>
       <c r="K49">
-        <v>2500</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="B50">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="C50">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="D50">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="E50">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="F50">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="G50">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="H50">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="I50">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="J50">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="K50">
-        <v>1000</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51">
+        <v>2500</v>
+      </c>
+      <c r="C51">
+        <v>2500</v>
+      </c>
+      <c r="D51">
+        <v>2500</v>
+      </c>
+      <c r="E51">
+        <v>2500</v>
+      </c>
+      <c r="F51">
+        <v>2500</v>
+      </c>
+      <c r="G51">
+        <v>2500</v>
+      </c>
+      <c r="H51">
+        <v>2500</v>
+      </c>
+      <c r="I51">
+        <v>2500</v>
+      </c>
+      <c r="J51">
+        <v>2500</v>
+      </c>
+      <c r="K51">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52">
+        <v>1000</v>
+      </c>
+      <c r="C52">
+        <v>1000</v>
+      </c>
+      <c r="D52">
+        <v>1000</v>
+      </c>
+      <c r="E52">
+        <v>1000</v>
+      </c>
+      <c r="F52">
+        <v>1000</v>
+      </c>
+      <c r="G52">
+        <v>1000</v>
+      </c>
+      <c r="H52">
+        <v>1000</v>
+      </c>
+      <c r="I52">
+        <v>1000</v>
+      </c>
+      <c r="J52">
+        <v>1000</v>
+      </c>
+      <c r="K52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>67</v>
       </c>
-      <c r="B51">
+      <c r="B53">
         <v>1000</v>
       </c>
-      <c r="C51">
+      <c r="C53">
         <v>1000</v>
       </c>
-      <c r="D51">
+      <c r="D53">
         <v>1000</v>
       </c>
-      <c r="E51">
+      <c r="E53">
         <v>1000</v>
       </c>
-      <c r="F51">
+      <c r="F53">
         <v>1000</v>
       </c>
-      <c r="G51">
+      <c r="G53">
         <v>1000</v>
       </c>
-      <c r="H51">
+      <c r="H53">
         <v>1000</v>
       </c>
-      <c r="I51">
+      <c r="I53">
         <v>1000</v>
       </c>
-      <c r="J51">
+      <c r="J53">
         <v>1000</v>
       </c>
-      <c r="K51">
+      <c r="K53">
         <v>1000</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="2">
-        <f t="shared" ref="B52:K52" si="0">SUM(B46:B51)</f>
+      <c r="B54" s="2">
+        <f t="shared" ref="B54:K54" si="1">SUM(B48:B53)</f>
         <v>8750</v>
       </c>
-      <c r="C52" s="2">
-        <f t="shared" si="0"/>
+      <c r="C54" s="2">
+        <f t="shared" si="1"/>
         <v>9956</v>
       </c>
-      <c r="D52" s="2">
-        <f t="shared" si="0"/>
+      <c r="D54" s="2">
+        <f t="shared" si="1"/>
         <v>8750</v>
       </c>
-      <c r="E52" s="2">
-        <f t="shared" si="0"/>
+      <c r="E54" s="2">
+        <f t="shared" si="1"/>
         <v>9956</v>
       </c>
-      <c r="F52" s="2">
-        <f t="shared" si="0"/>
+      <c r="F54" s="2">
+        <f t="shared" si="1"/>
         <v>8750</v>
       </c>
-      <c r="G52" s="2">
-        <f t="shared" si="0"/>
+      <c r="G54" s="2">
+        <f t="shared" si="1"/>
         <v>9956</v>
       </c>
-      <c r="H52" s="2">
-        <f t="shared" si="0"/>
+      <c r="H54" s="2">
+        <f t="shared" si="1"/>
         <v>8750</v>
       </c>
-      <c r="I52" s="2">
-        <f t="shared" si="0"/>
+      <c r="I54" s="2">
+        <f t="shared" si="1"/>
         <v>9956</v>
       </c>
-      <c r="J52" s="2">
-        <f t="shared" si="0"/>
+      <c r="J54" s="2">
+        <f t="shared" si="1"/>
         <v>8750</v>
       </c>
-      <c r="K52" s="2">
-        <f t="shared" si="0"/>
+      <c r="K54" s="2">
+        <f t="shared" si="1"/>
         <v>9956</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <v>600</v>
-      </c>
-      <c r="C54">
-        <v>600</v>
-      </c>
-      <c r="D54">
-        <v>600</v>
-      </c>
-      <c r="E54">
-        <v>600</v>
-      </c>
-      <c r="F54">
-        <v>600</v>
-      </c>
-      <c r="G54">
-        <v>600</v>
-      </c>
-      <c r="H54">
-        <v>600</v>
-      </c>
-      <c r="I54">
-        <v>600</v>
-      </c>
-      <c r="J54">
-        <v>600</v>
-      </c>
-      <c r="K54">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>1600</v>
-      </c>
-      <c r="C55">
-        <v>1600</v>
-      </c>
-      <c r="D55">
-        <v>1600</v>
-      </c>
-      <c r="E55">
-        <v>1600</v>
-      </c>
-      <c r="F55">
-        <v>1600</v>
-      </c>
-      <c r="G55">
-        <v>1600</v>
-      </c>
-      <c r="H55">
-        <v>1600</v>
-      </c>
-      <c r="I55">
-        <v>1600</v>
-      </c>
-      <c r="J55">
-        <v>1600</v>
-      </c>
-      <c r="K55">
-        <v>1600</v>
-      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B56">
-        <v>2400</v>
+        <v>600</v>
       </c>
       <c r="C56">
-        <v>2400</v>
+        <v>600</v>
       </c>
       <c r="D56">
-        <v>2400</v>
+        <v>600</v>
       </c>
       <c r="E56">
-        <v>2400</v>
+        <v>600</v>
       </c>
       <c r="F56">
-        <v>2400</v>
+        <v>600</v>
       </c>
       <c r="G56">
-        <v>2400</v>
+        <v>600</v>
       </c>
       <c r="H56">
-        <v>2400</v>
+        <v>600</v>
       </c>
       <c r="I56">
-        <v>2400</v>
+        <v>600</v>
       </c>
       <c r="J56">
-        <v>2400</v>
+        <v>600</v>
       </c>
       <c r="K56">
-        <v>2400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57">
+        <v>1600</v>
+      </c>
+      <c r="C57">
+        <v>1600</v>
+      </c>
+      <c r="D57">
+        <v>1600</v>
+      </c>
+      <c r="E57">
+        <v>1600</v>
+      </c>
+      <c r="F57">
+        <v>1600</v>
+      </c>
+      <c r="G57">
+        <v>1600</v>
+      </c>
+      <c r="H57">
+        <v>1600</v>
+      </c>
+      <c r="I57">
+        <v>1600</v>
+      </c>
+      <c r="J57">
+        <v>1600</v>
+      </c>
+      <c r="K57">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58">
+        <v>2400</v>
+      </c>
+      <c r="C58">
+        <v>2400</v>
+      </c>
+      <c r="D58">
+        <v>2400</v>
+      </c>
+      <c r="E58">
+        <v>2400</v>
+      </c>
+      <c r="F58">
+        <v>2400</v>
+      </c>
+      <c r="G58">
+        <v>2400</v>
+      </c>
+      <c r="H58">
+        <v>2400</v>
+      </c>
+      <c r="I58">
+        <v>2400</v>
+      </c>
+      <c r="J58">
+        <v>2400</v>
+      </c>
+      <c r="K58">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>64</v>
       </c>
-      <c r="B57">
+      <c r="B59">
         <v>450</v>
       </c>
-      <c r="C57">
+      <c r="C59">
         <v>450</v>
       </c>
-      <c r="D57">
+      <c r="D59">
         <v>450</v>
       </c>
-      <c r="E57">
+      <c r="E59">
         <v>450</v>
       </c>
-      <c r="F57">
+      <c r="F59">
         <v>450</v>
       </c>
-      <c r="G57">
+      <c r="G59">
         <v>450</v>
       </c>
-      <c r="H57">
+      <c r="H59">
         <v>450</v>
       </c>
-      <c r="I57">
+      <c r="I59">
         <v>450</v>
       </c>
-      <c r="J57">
+      <c r="J59">
         <v>450</v>
       </c>
-      <c r="K57">
+      <c r="K59">
         <v>450</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B58" s="2">
-        <f t="shared" ref="B58:K58" si="1">SUM(B54:B57)</f>
+      <c r="B60" s="2">
+        <f t="shared" ref="B60:K60" si="2">SUM(B56:B59)</f>
         <v>5050</v>
       </c>
-      <c r="C58" s="2">
-        <f t="shared" si="1"/>
+      <c r="C60" s="2">
+        <f t="shared" si="2"/>
         <v>5050</v>
       </c>
-      <c r="D58" s="2">
-        <f t="shared" si="1"/>
+      <c r="D60" s="2">
+        <f t="shared" si="2"/>
         <v>5050</v>
       </c>
-      <c r="E58" s="2">
-        <f t="shared" si="1"/>
+      <c r="E60" s="2">
+        <f t="shared" si="2"/>
         <v>5050</v>
       </c>
-      <c r="F58" s="2">
-        <f t="shared" si="1"/>
+      <c r="F60" s="2">
+        <f t="shared" si="2"/>
         <v>5050</v>
       </c>
-      <c r="G58" s="2">
-        <f t="shared" si="1"/>
+      <c r="G60" s="2">
+        <f t="shared" si="2"/>
         <v>5050</v>
       </c>
-      <c r="H58" s="2">
-        <f t="shared" si="1"/>
+      <c r="H60" s="2">
+        <f t="shared" si="2"/>
         <v>5050</v>
       </c>
-      <c r="I58" s="2">
-        <f t="shared" si="1"/>
+      <c r="I60" s="2">
+        <f t="shared" si="2"/>
         <v>5050</v>
       </c>
-      <c r="J58" s="2">
-        <f t="shared" si="1"/>
+      <c r="J60" s="2">
+        <f t="shared" si="2"/>
         <v>5050</v>
       </c>
-      <c r="K58" s="2">
-        <f t="shared" si="1"/>
+      <c r="K60" s="2">
+        <f t="shared" si="2"/>
         <v>5050</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>56</v>
-      </c>
-      <c r="B60">
-        <v>500</v>
-      </c>
-      <c r="C60">
-        <v>500</v>
-      </c>
-      <c r="D60">
-        <v>500</v>
-      </c>
-      <c r="E60">
-        <v>500</v>
-      </c>
-      <c r="F60">
-        <v>500</v>
-      </c>
-      <c r="G60">
-        <v>500</v>
-      </c>
-      <c r="H60">
-        <v>500</v>
-      </c>
-      <c r="I60">
-        <v>500</v>
-      </c>
-      <c r="J60">
-        <v>500</v>
-      </c>
-      <c r="K60">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>65</v>
-      </c>
-      <c r="B61">
-        <v>300</v>
-      </c>
-      <c r="C61">
-        <v>300</v>
-      </c>
-      <c r="D61">
-        <v>300</v>
-      </c>
-      <c r="E61">
-        <v>300</v>
-      </c>
-      <c r="F61">
-        <v>300</v>
-      </c>
-      <c r="G61">
-        <v>300</v>
-      </c>
-      <c r="H61">
-        <v>300</v>
-      </c>
-      <c r="I61">
-        <v>300</v>
-      </c>
-      <c r="J61">
-        <v>300</v>
-      </c>
-      <c r="K61">
-        <v>300</v>
-      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62">
+        <v>500</v>
+      </c>
+      <c r="C62">
+        <v>500</v>
+      </c>
+      <c r="D62">
+        <v>500</v>
+      </c>
+      <c r="E62">
+        <v>500</v>
+      </c>
+      <c r="F62">
+        <v>500</v>
+      </c>
+      <c r="G62">
+        <v>500</v>
+      </c>
+      <c r="H62">
+        <v>500</v>
+      </c>
+      <c r="I62">
+        <v>500</v>
+      </c>
+      <c r="J62">
+        <v>500</v>
+      </c>
+      <c r="K62">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63">
+        <v>300</v>
+      </c>
+      <c r="C63">
+        <v>300</v>
+      </c>
+      <c r="D63">
+        <v>300</v>
+      </c>
+      <c r="E63">
+        <v>300</v>
+      </c>
+      <c r="F63">
+        <v>300</v>
+      </c>
+      <c r="G63">
+        <v>300</v>
+      </c>
+      <c r="H63">
+        <v>300</v>
+      </c>
+      <c r="I63">
+        <v>300</v>
+      </c>
+      <c r="J63">
+        <v>300</v>
+      </c>
+      <c r="K63">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>58</v>
       </c>
-      <c r="B62">
+      <c r="B64">
         <v>300</v>
       </c>
-      <c r="C62">
+      <c r="C64">
         <v>300</v>
       </c>
-      <c r="D62">
+      <c r="D64">
         <v>300</v>
       </c>
-      <c r="E62">
+      <c r="E64">
         <v>300</v>
       </c>
-      <c r="F62">
+      <c r="F64">
         <v>300</v>
       </c>
-      <c r="G62">
+      <c r="G64">
         <v>300</v>
       </c>
-      <c r="H62">
+      <c r="H64">
         <v>300</v>
       </c>
-      <c r="I62">
+      <c r="I64">
         <v>300</v>
       </c>
-      <c r="J62">
+      <c r="J64">
         <v>300</v>
       </c>
-      <c r="K62">
+      <c r="K64">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B63" s="2">
-        <f t="shared" ref="B63:K63" si="2">SUM(B60:B62)</f>
+      <c r="B65" s="2">
+        <f t="shared" ref="B65:K65" si="3">SUM(B62:B64)</f>
         <v>1100</v>
       </c>
-      <c r="C63" s="2">
-        <f t="shared" si="2"/>
+      <c r="C65" s="2">
+        <f t="shared" si="3"/>
         <v>1100</v>
       </c>
-      <c r="D63" s="2">
-        <f t="shared" si="2"/>
+      <c r="D65" s="2">
+        <f t="shared" si="3"/>
         <v>1100</v>
       </c>
-      <c r="E63" s="2">
-        <f t="shared" si="2"/>
+      <c r="E65" s="2">
+        <f t="shared" si="3"/>
         <v>1100</v>
       </c>
-      <c r="F63" s="2">
-        <f t="shared" si="2"/>
+      <c r="F65" s="2">
+        <f t="shared" si="3"/>
         <v>1100</v>
       </c>
-      <c r="G63" s="2">
-        <f t="shared" si="2"/>
+      <c r="G65" s="2">
+        <f t="shared" si="3"/>
         <v>1100</v>
       </c>
-      <c r="H63" s="2">
-        <f t="shared" si="2"/>
+      <c r="H65" s="2">
+        <f t="shared" si="3"/>
         <v>1100</v>
       </c>
-      <c r="I63" s="2">
-        <f t="shared" si="2"/>
+      <c r="I65" s="2">
+        <f t="shared" si="3"/>
         <v>1100</v>
       </c>
-      <c r="J63" s="2">
-        <f t="shared" si="2"/>
+      <c r="J65" s="2">
+        <f t="shared" si="3"/>
         <v>1100</v>
       </c>
-      <c r="K63" s="2">
-        <f t="shared" si="2"/>
+      <c r="K65" s="2">
+        <f t="shared" si="3"/>
         <v>1100</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>63</v>
       </c>
-      <c r="D66">
+      <c r="D68">
         <v>6700</v>
       </c>
-      <c r="E66">
-        <v>11200</v>
-      </c>
-      <c r="F66">
-        <v>11200</v>
-      </c>
-      <c r="G66">
-        <v>11200</v>
-      </c>
-      <c r="H66">
-        <v>11200</v>
-      </c>
-      <c r="I66">
-        <v>11200</v>
-      </c>
-      <c r="J66">
-        <v>11200</v>
-      </c>
-      <c r="K66">
-        <v>11200</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="E68">
+        <v>6200</v>
+      </c>
+      <c r="F68">
+        <v>6200</v>
+      </c>
+      <c r="G68">
+        <v>6200</v>
+      </c>
+      <c r="H68">
+        <v>6200</v>
+      </c>
+      <c r="I68">
+        <v>6200</v>
+      </c>
+      <c r="J68">
+        <v>6200</v>
+      </c>
+      <c r="K68">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B67" s="2">
-        <f t="shared" ref="B67:K67" si="3">SUM(B65:B66)</f>
+      <c r="B69" s="2">
+        <f t="shared" ref="B69:K69" si="4">SUM(B67:B68)</f>
         <v>0</v>
       </c>
-      <c r="C67" s="2">
-        <f t="shared" si="3"/>
+      <c r="C69" s="2">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D67" s="2">
-        <f t="shared" si="3"/>
+      <c r="D69" s="2">
+        <f t="shared" si="4"/>
         <v>6700</v>
       </c>
-      <c r="E67" s="2">
-        <f t="shared" si="3"/>
-        <v>11200</v>
-      </c>
-      <c r="F67" s="2">
-        <f t="shared" si="3"/>
-        <v>11200</v>
-      </c>
-      <c r="G67" s="2">
-        <f t="shared" si="3"/>
-        <v>11200</v>
-      </c>
-      <c r="H67" s="2">
-        <f t="shared" si="3"/>
-        <v>11200</v>
-      </c>
-      <c r="I67" s="2">
-        <f t="shared" si="3"/>
-        <v>11200</v>
-      </c>
-      <c r="J67" s="2">
-        <f t="shared" si="3"/>
-        <v>11200</v>
-      </c>
-      <c r="K67" s="2">
-        <f t="shared" si="3"/>
-        <v>11200</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="15" t="s">
+      <c r="E69" s="2">
+        <f t="shared" si="4"/>
+        <v>6200</v>
+      </c>
+      <c r="F69" s="2">
+        <f t="shared" si="4"/>
+        <v>6200</v>
+      </c>
+      <c r="G69" s="2">
+        <f t="shared" si="4"/>
+        <v>6200</v>
+      </c>
+      <c r="H69" s="2">
+        <f t="shared" si="4"/>
+        <v>6200</v>
+      </c>
+      <c r="I69" s="2">
+        <f t="shared" si="4"/>
+        <v>6200</v>
+      </c>
+      <c r="J69" s="2">
+        <f t="shared" si="4"/>
+        <v>6200</v>
+      </c>
+      <c r="K69" s="2">
+        <f t="shared" si="4"/>
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B69" s="16">
-        <f t="shared" ref="B69:K69" si="4">SUM(B44,B52,B58,B63,B67)</f>
+      <c r="B71" s="16">
+        <f t="shared" ref="B71:K71" si="5">SUM(B46,B54,B60,B65,B69)</f>
         <v>28427</v>
       </c>
-      <c r="C69" s="16">
-        <f t="shared" si="4"/>
-        <v>25106</v>
-      </c>
-      <c r="D69" s="16">
-        <f t="shared" si="4"/>
-        <v>28750</v>
-      </c>
-      <c r="E69" s="16">
-        <f t="shared" si="4"/>
-        <v>34336</v>
-      </c>
-      <c r="F69" s="16">
-        <f t="shared" si="4"/>
-        <v>32207</v>
-      </c>
-      <c r="G69" s="16">
-        <f t="shared" si="4"/>
-        <v>33056</v>
-      </c>
-      <c r="H69" s="16">
-        <f t="shared" si="4"/>
-        <v>31850</v>
-      </c>
-      <c r="I69" s="16">
-        <f t="shared" si="4"/>
-        <v>33056</v>
-      </c>
-      <c r="J69" s="16">
-        <f t="shared" si="4"/>
-        <v>31850</v>
-      </c>
-      <c r="K69" s="16">
-        <f t="shared" si="4"/>
-        <v>33056</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="C71" s="16">
+        <f t="shared" si="5"/>
+        <v>26636</v>
+      </c>
+      <c r="D71" s="16">
+        <f t="shared" si="5"/>
+        <v>29830</v>
+      </c>
+      <c r="E71" s="16">
+        <f t="shared" si="5"/>
+        <v>30416</v>
+      </c>
+      <c r="F71" s="16">
+        <f t="shared" si="5"/>
+        <v>28287</v>
+      </c>
+      <c r="G71" s="16">
+        <f t="shared" si="5"/>
+        <v>29136</v>
+      </c>
+      <c r="H71" s="16">
+        <f t="shared" si="5"/>
+        <v>27930</v>
+      </c>
+      <c r="I71" s="16">
+        <f t="shared" si="5"/>
+        <v>29136</v>
+      </c>
+      <c r="J71" s="16">
+        <f t="shared" si="5"/>
+        <v>27930</v>
+      </c>
+      <c r="K71" s="16">
+        <f t="shared" si="5"/>
+        <v>29136</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>70</v>
-      </c>
-      <c r="B72">
-        <v>28900</v>
-      </c>
-      <c r="C72">
-        <v>28900</v>
-      </c>
-      <c r="D72">
-        <v>28900</v>
-      </c>
-      <c r="E72">
-        <v>28900</v>
-      </c>
-      <c r="F72">
-        <v>28900</v>
-      </c>
-      <c r="G72">
-        <v>28900</v>
-      </c>
-      <c r="H72">
-        <v>28900</v>
-      </c>
-      <c r="I72">
-        <v>28900</v>
-      </c>
-      <c r="J72">
-        <v>28900</v>
-      </c>
-      <c r="K72">
-        <v>28900</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>73</v>
-      </c>
-      <c r="G73">
-        <v>14000</v>
-      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B74">
-        <v>3000</v>
+        <v>28900</v>
       </c>
       <c r="C74">
-        <v>3000</v>
+        <v>30900</v>
       </c>
       <c r="D74">
-        <v>3000</v>
+        <v>30900</v>
       </c>
       <c r="E74">
-        <v>3000</v>
+        <v>30900</v>
       </c>
       <c r="F74">
-        <v>3000</v>
+        <v>30900</v>
       </c>
       <c r="G74">
-        <v>3000</v>
+        <v>30900</v>
       </c>
       <c r="H74">
-        <v>3000</v>
+        <v>30900</v>
       </c>
       <c r="I74">
-        <v>3000</v>
+        <v>30900</v>
       </c>
       <c r="J74">
-        <v>3000</v>
+        <v>30900</v>
       </c>
       <c r="K74">
-        <v>3000</v>
+        <v>30900</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>73</v>
+      </c>
+      <c r="G75">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>71</v>
+      </c>
+      <c r="B76">
+        <v>3000</v>
+      </c>
+      <c r="C76">
+        <v>3000</v>
+      </c>
+      <c r="D76">
+        <v>3000</v>
+      </c>
+      <c r="E76">
+        <v>3000</v>
+      </c>
+      <c r="F76">
+        <v>3000</v>
+      </c>
+      <c r="G76">
+        <v>3000</v>
+      </c>
+      <c r="H76">
+        <v>3000</v>
+      </c>
+      <c r="I76">
+        <v>3000</v>
+      </c>
+      <c r="J76">
+        <v>3000</v>
+      </c>
+      <c r="K76">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
+    <row r="78" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B76" s="6">
-        <f t="shared" ref="B76:K76" si="5">SUM(B72:B75)</f>
+      <c r="B78" s="6">
+        <f t="shared" ref="B78:K78" si="6">SUM(B74:B77)</f>
         <v>31900</v>
       </c>
-      <c r="C76" s="6">
-        <f t="shared" si="5"/>
-        <v>31900</v>
-      </c>
-      <c r="D76" s="6">
-        <f t="shared" si="5"/>
-        <v>31900</v>
-      </c>
-      <c r="E76" s="6">
-        <f t="shared" si="5"/>
-        <v>31900</v>
-      </c>
-      <c r="F76" s="6">
-        <f t="shared" si="5"/>
-        <v>31900</v>
-      </c>
-      <c r="G76" s="6">
-        <f t="shared" si="5"/>
-        <v>45900</v>
-      </c>
-      <c r="H76" s="6">
-        <f t="shared" si="5"/>
-        <v>31900</v>
-      </c>
-      <c r="I76" s="6">
-        <f t="shared" si="5"/>
-        <v>31900</v>
-      </c>
-      <c r="J76" s="6">
-        <f t="shared" si="5"/>
-        <v>31900</v>
-      </c>
-      <c r="K76" s="6">
-        <f t="shared" si="5"/>
-        <v>31900</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="C78" s="6">
+        <f t="shared" si="6"/>
+        <v>33900</v>
+      </c>
+      <c r="D78" s="6">
+        <f t="shared" si="6"/>
+        <v>33900</v>
+      </c>
+      <c r="E78" s="6">
+        <f t="shared" si="6"/>
+        <v>33900</v>
+      </c>
+      <c r="F78" s="6">
+        <f t="shared" si="6"/>
+        <v>33900</v>
+      </c>
+      <c r="G78" s="6">
+        <f t="shared" si="6"/>
+        <v>47900</v>
+      </c>
+      <c r="H78" s="6">
+        <f t="shared" si="6"/>
+        <v>33900</v>
+      </c>
+      <c r="I78" s="6">
+        <f t="shared" si="6"/>
+        <v>33900</v>
+      </c>
+      <c r="J78" s="6">
+        <f t="shared" si="6"/>
+        <v>33900</v>
+      </c>
+      <c r="K78" s="6">
+        <f t="shared" si="6"/>
+        <v>33900</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B78" s="2">
-        <f t="shared" ref="B78:K78" si="6">B76-B69</f>
+      <c r="B80" s="2">
+        <f t="shared" ref="B80:K80" si="7">B78-B71</f>
         <v>3473</v>
       </c>
-      <c r="C78" s="2">
-        <f t="shared" si="6"/>
-        <v>6794</v>
-      </c>
-      <c r="D78" s="2">
-        <f t="shared" si="6"/>
-        <v>3150</v>
-      </c>
-      <c r="E78" s="2">
-        <f t="shared" si="6"/>
-        <v>-2436</v>
-      </c>
-      <c r="F78" s="2">
-        <f t="shared" si="6"/>
-        <v>-307</v>
-      </c>
-      <c r="G78" s="2">
-        <f t="shared" si="6"/>
-        <v>12844</v>
-      </c>
-      <c r="H78" s="2">
-        <f t="shared" si="6"/>
-        <v>50</v>
-      </c>
-      <c r="I78" s="2">
-        <f t="shared" si="6"/>
-        <v>-1156</v>
-      </c>
-      <c r="J78" s="2">
-        <f t="shared" si="6"/>
-        <v>50</v>
-      </c>
-      <c r="K78" s="2">
-        <f t="shared" si="6"/>
-        <v>-1156</v>
+      <c r="C80" s="2">
+        <f t="shared" si="7"/>
+        <v>7264</v>
+      </c>
+      <c r="D80" s="2">
+        <f t="shared" si="7"/>
+        <v>4070</v>
+      </c>
+      <c r="E80" s="2">
+        <f t="shared" si="7"/>
+        <v>3484</v>
+      </c>
+      <c r="F80" s="2">
+        <f t="shared" si="7"/>
+        <v>5613</v>
+      </c>
+      <c r="G80" s="2">
+        <f t="shared" si="7"/>
+        <v>18764</v>
+      </c>
+      <c r="H80" s="2">
+        <f t="shared" si="7"/>
+        <v>5970</v>
+      </c>
+      <c r="I80" s="2">
+        <f t="shared" si="7"/>
+        <v>4764</v>
+      </c>
+      <c r="J80" s="2">
+        <f t="shared" si="7"/>
+        <v>5970</v>
+      </c>
+      <c r="K80" s="2">
+        <f t="shared" si="7"/>
+        <v>4764</v>
       </c>
     </row>
   </sheetData>
